--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C62BFEB-0B70-C749-93A1-C981AB91F91B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8183DEAA-2D40-5D44-8055-C8F62F9AA8E2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="13020" windowWidth="27300" windowHeight="12580" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1563,9 +1563,6 @@
     </r>
   </si>
   <si>
-    <t>PauseBefore()</t>
-  </si>
-  <si>
     <t>[EXCEL(${fixture}) =&gt; 
  read(AnotherSheet,A1:B7) 
  transpose csv 
@@ -1602,6 +1599,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>PauseBefore()</t>
   </si>
 </sst>
 </file>
@@ -15306,9 +15306,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3729180E-58C6-374C-91D5-6DA3E96A50D3}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="108" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15547,7 +15547,7 @@
     <row r="9" spans="1:15" ht="94" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>13</v>
@@ -15559,13 +15559,13 @@
         <v>441</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="22" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="15"/>
@@ -15576,7 +15576,7 @@
     <row r="10" spans="1:15" ht="62" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>13</v>
@@ -15585,7 +15585,7 @@
         <v>321</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10"/>
@@ -15608,10 +15608,10 @@
         <v>318</v>
       </c>
       <c r="E11" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>452</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>453</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -15633,10 +15633,10 @@
         <v>318</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -26831,7 +26831,7 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{D855E50B-529E-B045-8399-E6ECAD7E7292}">
       <formula1>target</formula1>
     </dataValidation>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3254" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1676,13 +1676,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="103" x14ac:knownFonts="1">
+  <fonts count="118" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2337,8 +2340,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3275,8 +3372,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -5006,6 +5256,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5013,7 +5545,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="143">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5371,49 +5903,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5768,7 +6345,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6980,7 +7557,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>215</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60">
@@ -6988,7 +7565,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -6996,7 +7573,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62">
@@ -7004,7 +7581,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -7012,7 +7589,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>471</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -7020,7 +7597,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65">
@@ -7028,7 +7605,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -7036,7 +7613,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -7044,7 +7621,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -7052,7 +7629,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -7060,7 +7637,7 @@
         <v>434</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -7068,7 +7645,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -7076,7 +7653,7 @@
         <v>435</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -7084,7 +7661,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -7092,7 +7669,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -7100,7 +7677,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -7108,7 +7685,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -7116,7 +7693,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -7124,7 +7701,7 @@
         <v>458</v>
       </c>
       <c r="U77" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -7132,7 +7709,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
@@ -7140,7 +7717,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -7148,7 +7725,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>472</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -7156,7 +7733,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="82">
@@ -7164,7 +7741,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83">
@@ -7172,7 +7749,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -7180,7 +7757,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -7188,7 +7765,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -7196,7 +7773,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -7204,7 +7781,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88">
@@ -7212,7 +7789,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -7220,7 +7797,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -7228,7 +7805,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
@@ -7236,7 +7813,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -7244,101 +7821,106 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -20,16 +20,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,8 +43,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3702" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="490">
   <si>
     <t>description</t>
   </si>
@@ -1679,13 +1679,37 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="118" x14ac:knownFonts="1">
+  <fonts count="133" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2434,8 +2458,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3525,8 +3643,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5538,6 +5809,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5545,7 +6098,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5948,49 +6501,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="105" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="108" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6345,7 +6943,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6671,6 +7269,9 @@
       <c r="C5" t="s">
         <v>225</v>
       </c>
+      <c r="D5" t="s">
+        <v>482</v>
+      </c>
       <c r="E5" t="s">
         <v>337</v>
       </c>
@@ -6764,7 +7365,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>488</v>
       </c>
       <c r="W6" t="s">
         <v>181</v>
@@ -6819,6 +7420,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>489</v>
+      </c>
       <c r="W7" t="s">
         <v>182</v>
       </c>
@@ -6869,6 +7473,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>176</v>
+      </c>
       <c r="W8" t="s">
         <v>183</v>
       </c>
@@ -6937,7 +7544,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="M10" t="s">
         <v>463</v>
@@ -6972,7 +7579,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -7004,7 +7611,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -7032,6 +7639,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -7182,7 +7792,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>483</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -7199,7 +7809,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -7215,6 +7825,9 @@
       <c r="E22" t="s">
         <v>300</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -7445,7 +8058,7 @@
         <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>214</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46">
@@ -7453,7 +8066,7 @@
         <v>212</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -7461,7 +8074,7 @@
         <v>321</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -7469,7 +8082,7 @@
         <v>340</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -7477,7 +8090,7 @@
         <v>369</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -7485,7 +8098,7 @@
         <v>303</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -7493,7 +8106,7 @@
         <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -7501,7 +8114,7 @@
         <v>332</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53">
@@ -7509,7 +8122,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -7517,7 +8130,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -7525,7 +8138,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -7533,7 +8146,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -7541,7 +8154,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -7549,7 +8162,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -7557,7 +8170,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>481</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -7565,7 +8178,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>215</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61">
@@ -7573,7 +8186,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
@@ -7581,7 +8194,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63">
@@ -7589,7 +8202,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64">
@@ -7597,7 +8210,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>471</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -7605,7 +8218,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -7613,7 +8226,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -7621,7 +8234,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -7629,7 +8242,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -7637,7 +8250,7 @@
         <v>434</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -7645,7 +8258,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -7653,7 +8266,7 @@
         <v>435</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -7661,7 +8274,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -7669,7 +8282,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -7677,7 +8290,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -7685,7 +8298,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -7693,7 +8306,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -7701,7 +8314,7 @@
         <v>458</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -7709,7 +8322,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -7717,7 +8330,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
@@ -7725,7 +8338,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -7733,7 +8346,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>472</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -7741,7 +8354,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="83">
@@ -7749,7 +8362,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84">
@@ -7757,7 +8370,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -7765,7 +8378,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -7773,7 +8386,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -7781,7 +8394,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -7789,7 +8402,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -7797,7 +8410,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -7805,7 +8418,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -7813,7 +8426,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92">
@@ -7821,106 +8434,116 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>487</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4157" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="490">
   <si>
     <t>description</t>
   </si>
@@ -1709,7 +1709,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="133" x14ac:knownFonts="1">
+  <fonts count="148" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2552,8 +2552,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3796,8 +3890,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -6091,6 +6338,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6098,7 +6627,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6546,49 +7075,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="120" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="123" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4612" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5068" uniqueCount="490">
   <si>
     <t>description</t>
   </si>
@@ -1709,7 +1709,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="148" x14ac:knownFonts="1">
+  <fonts count="163" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2646,8 +2646,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4043,8 +4137,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6620,6 +6867,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6627,7 +7156,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="188">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7120,49 +7649,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="135" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="138" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7974,7 +8548,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -8030,7 +8604,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -8080,7 +8654,7 @@
         <v>391</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -8118,7 +8692,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>484</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>463</v>
@@ -8153,7 +8727,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>484</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -8185,7 +8759,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -8214,7 +8788,7 @@
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>95</v>
@@ -8241,6 +8815,9 @@
       </c>
       <c r="I14" t="s">
         <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5068" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6442" uniqueCount="493">
   <si>
     <t>description</t>
   </si>
@@ -1703,13 +1703,22 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="163" x14ac:knownFonts="1">
+  <fonts count="208" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2740,8 +2749,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4290,8 +4581,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -7149,6 +7899,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7156,7 +8752,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="233">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7694,49 +9290,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="150" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="153" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="163" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="165" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="166" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="168" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="180" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="181" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="183" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8279,7 +10010,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>492</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8353,7 +10084,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>491</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -8424,7 +10155,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -8486,7 +10217,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8542,7 +10273,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -8598,7 +10329,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -8650,6 +10381,9 @@
       <c r="E9" t="s">
         <v>307</v>
       </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
       <c r="I9" t="s">
         <v>391</v>
       </c>
@@ -8687,6 +10421,9 @@
       </c>
       <c r="E10" t="s">
         <v>353</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -19,12 +19,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6442" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7366" uniqueCount="497">
   <si>
     <t>description</t>
   </si>
@@ -1712,13 +1712,25 @@
   <si>
     <t>csv(file,worksheet,range,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="208" x14ac:knownFonts="1">
+  <fonts count="238" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3031,8 +3043,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5040,8 +5240,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -8745,6 +9251,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8752,7 +9822,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="233">
+  <cellXfs count="263">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9425,49 +10495,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="193" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="195" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="198" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="208" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="209" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="210" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="211" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="213" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="214" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="216" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="217" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9930,7 +11090,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>494</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -10010,7 +11170,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>492</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -10084,7 +11244,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -10155,7 +11315,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>492</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -10217,7 +11377,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>491</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -10273,7 +11433,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -10329,7 +11489,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10382,7 +11542,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>496</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -10423,7 +11583,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -10460,6 +11620,9 @@
       <c r="E11" t="s">
         <v>275</v>
       </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -10492,6 +11655,9 @@
       <c r="E12" t="s">
         <v>264</v>
       </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -10521,6 +11687,9 @@
       <c r="E13" t="s">
         <v>317</v>
       </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -10725,7 +11894,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>493</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -10739,7 +11908,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -10753,7 +11922,7 @@
         <v>455</v>
       </c>
       <c r="C25" t="s">
-        <v>457</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -10767,7 +11936,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>457</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -10778,7 +11947,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -10789,7 +11958,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -10800,7 +11969,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -10811,7 +11980,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -10822,7 +11991,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -10833,7 +12002,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -10844,7 +12013,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -10854,6 +12023,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>331</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7366" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8292" uniqueCount="499">
   <si>
     <t>description</t>
   </si>
@@ -1724,13 +1724,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="238" x14ac:knownFonts="1">
+  <fonts count="268" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3231,8 +3237,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5546,8 +5740,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -9815,6 +10315,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9822,7 +10886,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="263">
+  <cellXfs count="293">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10585,49 +11649,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="226" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="228" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="396" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="399" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="402" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="405" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="240" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="241" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="243" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10982,7 +12136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12374,7 +13528,7 @@
         <v>458</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78">
@@ -12382,7 +13536,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -12390,7 +13544,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -12398,7 +13552,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
@@ -12406,7 +13560,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -12414,7 +13568,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>472</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -12422,7 +13576,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="84">
@@ -12430,7 +13584,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85">
@@ -12438,7 +13592,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -12446,7 +13600,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -12454,7 +13608,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -12462,7 +13616,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -12470,7 +13624,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90">
@@ -12478,7 +13632,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -12486,7 +13640,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -12494,116 +13648,121 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>487</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>487</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8292" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8756" uniqueCount="500">
   <si>
     <t>description</t>
   </si>
@@ -1730,13 +1730,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="268" x14ac:knownFonts="1">
+  <fonts count="283" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3425,8 +3428,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6046,8 +6143,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10879,6 +11129,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10886,7 +11418,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="308">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11739,49 +12271,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="258" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12136,7 +12713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13472,7 +14049,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71">
@@ -13480,7 +14057,7 @@
         <v>435</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -13488,7 +14065,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -13496,7 +14073,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -13504,7 +14081,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -13512,7 +14089,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -13520,7 +14097,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -13528,7 +14105,7 @@
         <v>458</v>
       </c>
       <c r="U77" t="s">
-        <v>498</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -13536,7 +14113,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>498</v>
       </c>
     </row>
     <row r="79">
@@ -13544,7 +14121,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -13552,7 +14129,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -13560,7 +14137,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -13568,7 +14145,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -13576,7 +14153,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>472</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -13584,7 +14161,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="85">
@@ -13592,7 +14169,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86">
@@ -13600,7 +14177,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -13608,7 +14185,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -13616,7 +14193,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -13624,7 +14201,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -13632,7 +14209,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91">
@@ -13640,7 +14217,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -13648,121 +14225,126 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>487</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>164</v>
+        <v>487</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{E8DCC4BD-A435-954C-A522-A07B43F5A4BF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21040" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21040" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="10960"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="506">
   <si>
     <t>description</t>
   </si>
@@ -1757,13 +1757,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1948,8 +1951,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2121,8 +2218,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2442,6 +2692,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2449,7 +2981,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2586,49 +3118,94 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="18" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="24" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3043,7 +3620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA116"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3782,7 +4359,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>505</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -3811,7 +4388,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -3837,7 +4414,7 @@
         <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -3860,7 +4437,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -3877,7 +4454,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -3894,7 +4471,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -3911,7 +4488,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>472</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -3928,7 +4505,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>472</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -3945,7 +4522,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -3960,6 +4537,9 @@
       </c>
       <c r="E23" t="s">
         <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>
@@ -4688,7 +5268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="108" zoomScale="100" tabSelected="true">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="108">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -16248,9 +16828,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3729180E-58C6-374C-91D5-6DA3E96A50D3}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="108" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="108">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
-      <selection pane="bottomLeft" sqref="A5" activeCell="A5"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27791,7 +28371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A351DB99-4319-6044-A398-151848C9943E}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="false" workbookViewId="0" zoomScaleNormal="108" zoomScale="100">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="108">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="508">
   <si>
     <t>description</t>
   </si>
@@ -1760,13 +1760,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2045,8 +2051,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2371,8 +2471,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="59">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -2974,6 +3227,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2981,7 +3516,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3163,49 +3698,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="38" fillId="33" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="36" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="39" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="45" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="48" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="51" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3797,7 +4377,7 @@
         <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>506</v>
       </c>
       <c r="D3" t="s">
         <v>366</v>
@@ -3871,7 +4451,7 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -3942,7 +4522,7 @@
         <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>507</v>
       </c>
       <c r="D5" t="s">
         <v>471</v>
@@ -4007,7 +4587,7 @@
         <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>389</v>
@@ -4063,7 +4643,7 @@
         <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>367</v>
@@ -4119,7 +4699,7 @@
         <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
         <v>368</v>
@@ -4172,7 +4752,7 @@
         <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>307</v>
@@ -4213,7 +4793,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
         <v>353</v>
@@ -4251,7 +4831,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
         <v>275</v>
@@ -4286,7 +4866,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -4318,7 +4898,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>317</v>
@@ -4350,7 +4930,7 @@
         <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>265</v>
@@ -4382,7 +4962,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>387</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>266</v>
@@ -4408,7 +4988,7 @@
         <v>397</v>
       </c>
       <c r="C16" t="s">
-        <v>447</v>
+        <v>386</v>
       </c>
       <c r="E16" t="s">
         <v>318</v>
@@ -4431,7 +5011,7 @@
         <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -4448,7 +5028,7 @@
         <v>445</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>447</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -4465,7 +5045,7 @@
         <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>297</v>
@@ -4482,7 +5062,7 @@
         <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -4499,7 +5079,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
         <v>299</v>
@@ -4516,7 +5096,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>300</v>
@@ -4533,7 +5113,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>481</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -4550,7 +5130,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -4564,7 +5144,7 @@
         <v>446</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>481</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -4578,7 +5158,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>448</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -4589,7 +5169,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -4600,7 +5180,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>448</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -4611,7 +5191,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -4622,7 +5202,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -4633,7 +5213,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -4644,7 +5224,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -4655,7 +5235,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -4666,7 +5246,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>331</v>
@@ -4676,6 +5256,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>308</v>
       </c>
@@ -4684,6 +5267,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>262</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="509">
   <si>
     <t>description</t>
   </si>
@@ -1766,13 +1766,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2145,8 +2148,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2624,8 +2721,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="87">
+  <borders count="115">
     <border>
       <left/>
       <right/>
@@ -3509,6 +3759,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3516,7 +4048,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3743,49 +4275,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="60" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="60" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="63" borderId="70" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="70" fillId="63" fontId="45" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="66" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="66" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="47" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="48" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="72" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="72" fontId="50" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="75" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="75" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="78" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="78" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4198,7 +4775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5410,7 +5987,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54">
@@ -5418,7 +5995,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -5426,7 +6003,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -5434,7 +6011,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -5442,7 +6019,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -5450,7 +6027,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -5458,7 +6035,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -5466,7 +6043,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>470</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -5474,7 +6051,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>215</v>
+        <v>470</v>
       </c>
     </row>
     <row r="62">
@@ -5482,7 +6059,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63">
@@ -5490,7 +6067,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>475</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64">
@@ -5498,7 +6075,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65">
@@ -5506,7 +6083,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -5514,7 +6091,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -5522,7 +6099,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -5530,7 +6107,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -5538,7 +6115,7 @@
         <v>434</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -5546,7 +6123,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>486</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -5554,7 +6131,7 @@
         <v>435</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72">
@@ -5562,7 +6139,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -5570,7 +6147,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -5578,7 +6155,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -5586,7 +6163,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -5594,7 +6171,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -5602,7 +6179,7 @@
         <v>449</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -5610,7 +6187,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>485</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -5618,7 +6195,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>485</v>
       </c>
     </row>
     <row r="80">
@@ -5626,7 +6203,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -5634,7 +6211,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -5642,7 +6219,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -5650,7 +6227,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -5658,7 +6235,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>462</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -5666,7 +6243,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86">
@@ -5674,7 +6251,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>469</v>
       </c>
     </row>
     <row r="87">
@@ -5682,7 +6259,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -5690,7 +6267,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -5698,7 +6275,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -5706,7 +6283,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -5714,7 +6291,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92">
@@ -5722,126 +6299,131 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>476</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2498" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="509">
   <si>
     <t>description</t>
   </si>
@@ -1775,7 +1775,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="88" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2242,8 +2242,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2874,8 +2968,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="143">
     <border>
       <left/>
       <right/>
@@ -4041,6 +4288,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4048,7 +4577,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="114">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4320,49 +4849,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="60" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -20,36 +20,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2967" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="514">
   <si>
     <t>description</t>
   </si>
@@ -1769,13 +1770,28 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="88" x14ac:knownFonts="1">
+  <fonts count="104" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2336,8 +2352,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3121,8 +3238,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="143">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4570,6 +4840,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4577,7 +5129,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="130">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4894,49 +5446,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="114" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="117" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="75" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="120" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="76" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="126" borderId="134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="129" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="81" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="132" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5349,7 +5949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5368,75 +5968,78 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>444</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>445</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>398</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>446</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -5448,1556 +6051,1571 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>510</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>482</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>385</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>450</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>451</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>452</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>254</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>399</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>456</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>457</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>382</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>408</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>172</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>177</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>463</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
         <v>374</v>
       </c>
       <c r="C3" t="s">
+        <v>511</v>
+      </c>
+      <c r="D3" t="s">
         <v>506</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>366</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>453</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>400</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>458</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>383</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>409</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>173</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>178</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>365</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>388</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>483</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>352</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>239</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>220</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>401</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>459</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>410</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>174</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>185</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>464</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>507</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>471</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>504</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>512</v>
+      </c>
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>243</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>221</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>402</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>460</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>356</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>175</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>465</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>389</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>480</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>392</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>403</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>362</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>477</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>466</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>367</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>479</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>455</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>404</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>478</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>467</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>319</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>246</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>405</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>363</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>176</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>468</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
-        <v>391</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>247</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>406</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>364</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>353</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>484</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>391</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>454</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>248</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>407</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>258</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>473</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>249</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>259</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>250</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>317</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>255</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>327</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>326</v>
       </c>
-      <c r="I14" t="s">
-        <v>505</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>251</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>505</v>
+      </c>
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>252</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>397</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>386</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>318</v>
       </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
         <v>253</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>444</v>
-      </c>
-      <c r="C17" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" t="s">
         <v>387</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
-        <v>381</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
         <v>106</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>445</v>
-      </c>
-      <c r="C18" t="s">
+        <v>444</v>
+      </c>
+      <c r="D18" t="s">
         <v>447</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>381</v>
+      </c>
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" t="s">
+        <v>445</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
-        <v>393</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>398</v>
-      </c>
-      <c r="C20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>298</v>
       </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>393</v>
+      </c>
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" t="s">
         <v>257</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
-        <v>472</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>472</v>
+      </c>
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>322</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>291</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>280</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>446</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>481</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>446</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>448</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>434</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>435</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>449</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3442" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="516">
   <si>
     <t>description</t>
   </si>
@@ -1785,13 +1785,19 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="104" x14ac:knownFonts="1">
+  <fonts count="120" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2453,8 +2459,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3391,8 +3498,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -5122,6 +5382,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5129,7 +5671,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="146">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5491,52 +6033,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="90" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="156" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="156" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="159" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="159" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5949,7 +6539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6051,7 +6641,7 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -7163,7 +7753,7 @@
         <v>357</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>515</v>
       </c>
     </row>
     <row r="52">
@@ -7171,7 +7761,7 @@
         <v>332</v>
       </c>
       <c r="V52" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -7179,7 +7769,7 @@
         <v>269</v>
       </c>
       <c r="V53" t="s">
-        <v>508</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
@@ -7187,7 +7777,7 @@
         <v>293</v>
       </c>
       <c r="V54" t="s">
-        <v>133</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55">
@@ -7195,7 +7785,7 @@
         <v>294</v>
       </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -7203,7 +7793,7 @@
         <v>295</v>
       </c>
       <c r="V56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -7211,7 +7801,7 @@
         <v>304</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -7219,7 +7809,7 @@
         <v>313</v>
       </c>
       <c r="V58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -7227,7 +7817,7 @@
         <v>338</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -7235,7 +7825,7 @@
         <v>310</v>
       </c>
       <c r="V60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -7243,7 +7833,7 @@
         <v>311</v>
       </c>
       <c r="V61" t="s">
-        <v>470</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -7251,7 +7841,7 @@
         <v>370</v>
       </c>
       <c r="V62" t="s">
-        <v>215</v>
+        <v>470</v>
       </c>
     </row>
     <row r="63">
@@ -7259,7 +7849,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
@@ -7267,7 +7857,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>475</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65">
@@ -7275,7 +7865,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66">
@@ -7283,7 +7873,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -7291,7 +7881,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -7299,7 +7889,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -7307,7 +7897,7 @@
         <v>434</v>
       </c>
       <c r="V69" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -7315,7 +7905,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
@@ -7323,7 +7913,7 @@
         <v>435</v>
       </c>
       <c r="V71" t="s">
-        <v>486</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72">
@@ -7331,7 +7921,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>144</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73">
@@ -7339,7 +7929,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -7347,7 +7937,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -7355,7 +7945,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -7363,7 +7953,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -7371,7 +7961,7 @@
         <v>449</v>
       </c>
       <c r="V77" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -7379,7 +7969,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -7387,7 +7977,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>485</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -7395,7 +7985,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>202</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81">
@@ -7403,7 +7993,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -7411,7 +8001,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -7419,7 +8009,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84">
@@ -7427,7 +8017,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -7435,7 +8025,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>462</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
@@ -7443,7 +8033,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="87">
@@ -7451,7 +8041,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>205</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88">
@@ -7459,7 +8049,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -7467,7 +8057,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -7475,7 +8065,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -7483,7 +8073,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -7491,131 +8081,136 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>476</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -27,7 +27,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3918" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5350" uniqueCount="519">
   <si>
     <t>description</t>
   </si>
@@ -1791,13 +1791,22 @@
   <si>
     <t>clickWithKeys(locator,keys)</t>
   </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="120" x14ac:knownFonts="1">
+  <fonts count="168" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2560,8 +2569,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3651,8 +3963,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -5664,6 +6435,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5671,7 +7288,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="194">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6081,52 +7698,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="107" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="177" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="177" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="183" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="183" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="186" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="186" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="189" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="189" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="122" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="123" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="204" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="210" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="213" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="216" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="138" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="139" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="231" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="142" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="237" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="240" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="146" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="243" fontId="147" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6659,7 +8420,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>518</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -6742,7 +8503,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -6813,7 +8574,7 @@
         <v>483</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" t="s">
         <v>239</v>
@@ -6884,7 +8645,7 @@
         <v>504</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
         <v>512</v>
@@ -6944,6 +8705,9 @@
       </c>
       <c r="G6" t="s">
         <v>480</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5350" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6789" uniqueCount="523">
   <si>
     <t>description</t>
   </si>
@@ -1800,13 +1800,25 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="168" x14ac:knownFonts="1">
+  <fonts count="216" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2872,8 +2884,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4422,8 +4737,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -7281,6 +8055,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7288,7 +8908,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="242">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7842,52 +9462,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="154" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="155" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="258" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="258" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="157" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="264" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="264" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="267" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="267" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="270" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="270" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="170" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="171" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="285" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="173" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="174" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="291" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="294" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="178" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="297" fontId="179" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="186" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="187" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="312" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="189" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="318" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="321" fontId="193" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="324" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8300,7 +10064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9168,7 +10932,7 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>522</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -9185,7 +10949,7 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -9202,7 +10966,7 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -9219,7 +10983,7 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>472</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -9236,7 +11000,7 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>472</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -9253,7 +11017,7 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -9269,6 +11033,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -9303,7 +11070,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -9314,7 +11081,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>521</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -9325,7 +11092,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>448</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -9336,7 +11103,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -9347,7 +11114,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -9358,7 +11125,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -9369,7 +11136,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -9380,7 +11147,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -9391,7 +11158,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>262</v>
@@ -9401,6 +11168,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
@@ -9409,6 +11179,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>
@@ -9693,7 +11466,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74">
@@ -9701,7 +11474,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -9709,7 +11482,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -9717,7 +11490,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -9725,7 +11498,7 @@
         <v>449</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -9733,7 +11506,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -9741,7 +11514,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -9749,7 +11522,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>485</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -9757,7 +11530,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>202</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82">
@@ -9765,7 +11538,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -9773,7 +11546,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -9781,7 +11554,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
@@ -9789,7 +11562,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -9797,7 +11570,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>462</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -9805,7 +11578,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88">
@@ -9813,7 +11586,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>205</v>
+        <v>469</v>
       </c>
     </row>
     <row r="89">
@@ -9821,7 +11594,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -9829,7 +11602,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -9837,7 +11610,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -9845,136 +11618,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>476</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6789" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7272" uniqueCount="525">
   <si>
     <t>description</t>
   </si>
@@ -1812,13 +1812,19 @@
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
   </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="216" x14ac:knownFonts="1">
+  <fonts count="232" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3187,8 +3193,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5196,8 +5303,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8901,6 +9161,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8908,7 +9450,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="258">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9606,52 +10148,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="202" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="203" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="339" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="339" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="345" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="345" fontId="208" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="348" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="348" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="351" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="351" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="215" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10721,7 +11311,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -10756,7 +11346,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>473</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -10788,7 +11378,7 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>524</v>
       </c>
       <c r="N13" t="s">
         <v>95</v>
@@ -10820,7 +11410,7 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
@@ -10848,6 +11438,9 @@
       <c r="J15" t="s">
         <v>505</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>97</v>
       </c>
@@ -10873,6 +11466,9 @@
       </c>
       <c r="J16" t="s">
         <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
       </c>
       <c r="O16" t="s">
         <v>253</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7272" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="528">
   <si>
     <t>description</t>
   </si>
@@ -1818,13 +1818,22 @@
   <si>
     <t>minify(json,var)</t>
   </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="232" x14ac:knownFonts="1">
+  <fonts count="248" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3294,8 +3303,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="409">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5456,8 +5566,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="423">
     <border>
       <left/>
       <right/>
@@ -9443,6 +9706,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9450,7 +9995,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="274">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10196,52 +10741,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="218" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="219" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="366" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="366" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="221" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="372" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="372" fontId="224" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="375" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="375" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="378" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="378" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="393" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="399" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="402" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10654,7 +11247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11253,7 +11846,7 @@
         <v>190</v>
       </c>
       <c r="AA9" t="s">
-        <v>236</v>
+        <v>526</v>
       </c>
     </row>
     <row r="10">
@@ -11291,7 +11884,7 @@
         <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>237</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11">
@@ -11326,7 +11919,7 @@
         <v>260</v>
       </c>
       <c r="AA11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -11360,6 +11953,9 @@
       <c r="Y12" t="s">
         <v>192</v>
       </c>
+      <c r="AA12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -11392,6 +11988,9 @@
       <c r="Y13" t="s">
         <v>193</v>
       </c>
+      <c r="AA13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -11982,7 +12581,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>215</v>
+        <v>525</v>
       </c>
     </row>
     <row r="64">
@@ -11990,7 +12589,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -11998,7 +12597,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>475</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66">
@@ -12006,7 +12605,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67">
@@ -12014,7 +12613,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -12022,7 +12621,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -12030,7 +12629,7 @@
         <v>434</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -12038,7 +12637,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -12046,7 +12645,7 @@
         <v>435</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
@@ -12054,7 +12653,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>486</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
@@ -12062,7 +12661,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74">
@@ -12070,7 +12669,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
     </row>
     <row r="75">
@@ -12078,7 +12677,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -12086,7 +12685,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -12094,7 +12693,7 @@
         <v>449</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -12102,7 +12701,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -12110,7 +12709,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -12118,7 +12717,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -12126,7 +12725,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>485</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -12134,7 +12733,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83">
@@ -12142,7 +12741,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -12150,7 +12749,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -12158,7 +12757,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86">
@@ -12166,7 +12765,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -12174,7 +12773,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>462</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -12182,7 +12781,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89">
@@ -12190,7 +12789,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>469</v>
       </c>
     </row>
     <row r="90">
@@ -12198,7 +12797,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -12206,7 +12805,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -12214,141 +12813,146 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>476</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -26,31 +26,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7758" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8252" uniqueCount="537">
   <si>
     <t>description</t>
   </si>
@@ -1827,13 +1828,40 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="248" x14ac:knownFonts="1">
+  <fonts count="264" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3404,8 +3432,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="409">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5719,8 +5848,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="423">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9988,6 +10270,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9995,7 +10559,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="290">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10789,52 +11353,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="384" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="387" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="234" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="390" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="235" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="393" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="393" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="239" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="399" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="399" fontId="240" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="402" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="402" fontId="241" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="405" borderId="422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="405" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11247,7 +11859,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11296,48 +11908,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>528</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>397</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>444</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>445</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>398</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>446</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -11379,48 +11994,51 @@
         <v>450</v>
       </c>
       <c r="M2" t="s">
+        <v>531</v>
+      </c>
+      <c r="N2" t="s">
         <v>451</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>452</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>399</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>456</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>457</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>408</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>463</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -11447,7 +12065,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>529</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -11461,43 +12079,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>532</v>
+      </c>
+      <c r="O3" t="s">
         <v>453</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>400</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>458</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>409</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>365</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -11520,6 +12141,9 @@
       <c r="G4" t="s">
         <v>483</v>
       </c>
+      <c r="H4" t="s">
+        <v>530</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -11532,43 +12156,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>533</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>401</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>459</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>410</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>464</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -11600,40 +12227,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>402</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>460</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>465</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -11662,37 +12289,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>392</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>403</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>477</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>466</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -11718,37 +12345,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>455</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>404</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>478</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>467</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -11774,34 +12401,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>405</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>468</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -11827,25 +12454,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>406</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11868,22 +12495,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>454</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>407</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>527</v>
       </c>
     </row>
@@ -11906,19 +12533,19 @@
       <c r="L11" t="s">
         <v>523</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -11941,25 +12568,25 @@
       <c r="L12" t="s">
         <v>473</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>528</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -11976,25 +12603,25 @@
       <c r="L13" t="s">
         <v>524</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -12011,22 +12638,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -12040,22 +12667,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>386</v>
@@ -12069,19 +12696,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>387</v>
@@ -12092,16 +12719,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="D18" t="s">
         <v>447</v>
@@ -12112,13 +12739,13 @@
       <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -12129,13 +12756,13 @@
       <c r="J19" t="s">
         <v>522</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -12146,13 +12773,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -12163,13 +12790,13 @@
       <c r="J21" t="s">
         <v>393</v>
       </c>
-      <c r="V21" t="s">
-        <v>110</v>
+      <c r="W21" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -12180,13 +12807,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -12197,13 +12824,13 @@
       <c r="J23" t="s">
         <v>472</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -12214,13 +12841,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>481</v>
@@ -12231,13 +12858,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>446</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -12245,13 +12872,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>446</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -12259,18 +12886,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>520</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -12281,7 +12911,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -12292,7 +12922,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -12303,7 +12933,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -12314,7 +12944,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12325,7 +12955,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -12336,7 +12966,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -12347,7 +12977,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12358,7 +12988,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -12369,7 +12999,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>461</v>
       </c>
     </row>
@@ -12380,7 +13010,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>394</v>
       </c>
     </row>
@@ -12388,7 +13018,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -12396,7 +13026,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12404,7 +13034,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -12412,7 +13042,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12420,7 +13050,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12428,7 +13058,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12436,7 +13066,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>474</v>
       </c>
     </row>
@@ -12444,7 +13074,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -12452,7 +13082,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -12460,7 +13090,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12468,7 +13098,7 @@
       <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12476,7 +13106,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12484,475 +13114,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>515</v>
+      <c r="W51" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>508</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="V62" t="s">
-        <v>470</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="V63" t="s">
-        <v>525</v>
+      <c r="W63" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>215</v>
+      <c r="W64" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>390</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>475</v>
+      <c r="W66" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>434</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>435</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>486</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>519</v>
+      <c r="W74" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>449</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>485</v>
+      <c r="W82" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>216</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>462</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>469</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8252" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8746" uniqueCount="537">
   <si>
     <t>description</t>
   </si>
@@ -1861,7 +1861,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="264" x14ac:knownFonts="1">
+  <fonts count="280" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3533,8 +3533,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6001,8 +6102,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -10552,6 +10806,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10559,7 +11095,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="306">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11401,52 +11937,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="250" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="251" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="420" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="420" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="426" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="426" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="429" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="429" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="432" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="432" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="447" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="453" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="456" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -20,38 +20,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8746" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9751" uniqueCount="547">
   <si>
     <t>description</t>
   </si>
@@ -1855,13 +1856,43 @@
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="280" x14ac:knownFonts="1">
+  <fonts count="312" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3634,8 +3665,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6255,8 +6488,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11088,6 +11627,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11095,7 +12198,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="338">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11985,52 +13088,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="266" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="267" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="447" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="447" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="269" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="270" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="271" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="453" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="453" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="456" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="456" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="459" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="459" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="282" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="283" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="474" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="286" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="480" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="483" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="486" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="501" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="507" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="510" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12443,7 +13642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12465,78 +13664,81 @@
         <v>509</v>
       </c>
       <c r="D1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>528</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>397</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>444</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>445</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>398</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>446</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -12551,79 +13753,82 @@
         <v>514</v>
       </c>
       <c r="D2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>482</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>518</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>450</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>531</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>451</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>452</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>399</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>456</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>457</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>408</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>463</v>
       </c>
-      <c r="AB2" t="s">
-        <v>229</v>
+      <c r="AC2" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="3">
@@ -12637,1546 +13842,1573 @@
         <v>511</v>
       </c>
       <c r="D3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E3" t="s">
         <v>506</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>529</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>532</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>453</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>400</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>458</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>409</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
-        <v>230</v>
+      <c r="AC3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>537</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>540</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>388</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>483</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>530</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>533</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>401</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>459</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>410</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>464</v>
       </c>
-      <c r="AB4" t="s">
-        <v>231</v>
+      <c r="AC4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>541</v>
+      </c>
+      <c r="E5" t="s">
         <v>507</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>471</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>504</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>512</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>402</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>460</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>465</v>
       </c>
-      <c r="AB5" t="s">
-        <v>232</v>
+      <c r="AC5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>389</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>480</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>392</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>403</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>477</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>466</v>
       </c>
-      <c r="AB6" t="s">
-        <v>233</v>
+      <c r="AC6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>479</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>455</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>404</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>478</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>467</v>
       </c>
-      <c r="AB7" t="s">
-        <v>234</v>
+      <c r="AC7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>405</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>468</v>
       </c>
-      <c r="AB8" t="s">
-        <v>235</v>
+      <c r="AC8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>406</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
-        <v>526</v>
+      <c r="AC9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>484</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>391</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>454</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>407</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
-        <v>527</v>
+      <c r="AC10" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>523</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
-        <v>236</v>
+      <c r="AC11" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>320</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>473</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
-        <v>237</v>
+      <c r="AC12" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>528</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>524</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
-        <v>238</v>
+      <c r="AC13" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>528</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>505</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>386</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>513</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>447</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>381</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>444</v>
-      </c>
-      <c r="D19" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>522</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>445</v>
-      </c>
-      <c r="D20" t="s">
+        <v>444</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" t="s">
+        <v>445</v>
+      </c>
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>393</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" t="s">
         <v>322</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>472</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>481</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>446</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>446</v>
+      </c>
+      <c r="E28" t="s">
+        <v>520</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>520</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>521</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>448</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>308</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>309</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>369</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>357</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>370</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>371</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>314</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>354</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>434</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>435</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>449</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>312</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9751" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10260" uniqueCount="551">
   <si>
     <t>description</t>
   </si>
@@ -1886,13 +1886,25 @@
   <si>
     <t>replace(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="312" x14ac:knownFonts="1">
+  <fonts count="328" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3867,8 +3879,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6794,8 +6907,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -12191,6 +12457,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12198,7 +12746,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="354">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13184,52 +13732,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="501" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="501" fontId="300" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="301" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="504" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="302" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="507" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="507" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="510" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="510" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="513" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="513" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13642,7 +14238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14414,7 +15010,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14">
@@ -14449,7 +15045,7 @@
         <v>194</v>
       </c>
       <c r="AC14" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15">
@@ -14481,7 +15077,7 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
     </row>
     <row r="16">
@@ -14510,7 +15106,7 @@
         <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17">
@@ -14533,7 +15129,7 @@
         <v>513</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18">
@@ -14553,7 +15149,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19">
@@ -14572,6 +15168,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -14589,6 +15188,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -14606,6 +15208,9 @@
       <c r="X21" t="s">
         <v>534</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -15155,7 +15760,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>547</v>
       </c>
     </row>
     <row r="80">
@@ -15163,7 +15768,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -15171,7 +15776,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -15179,7 +15784,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>536</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -15187,7 +15792,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>536</v>
       </c>
     </row>
     <row r="84">
@@ -15195,7 +15800,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>485</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -15203,7 +15808,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86">
@@ -15211,7 +15816,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -15219,7 +15824,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -15227,7 +15832,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -15235,7 +15840,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -15243,7 +15848,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>462</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -15251,7 +15856,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="92">
@@ -15259,156 +15864,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>205</v>
+        <v>469</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>476</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -35,7 +35,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10260" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11281" uniqueCount="554">
   <si>
     <t>description</t>
   </si>
@@ -1898,13 +1898,22 @@
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
   </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="328" x14ac:knownFonts="1">
+  <fonts count="360" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3980,8 +3989,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7060,8 +7271,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12739,6 +13256,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12746,7 +13827,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="354">
+  <cellXfs count="386">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13780,52 +14861,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="315" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="528" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="528" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="318" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="534" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="534" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="537" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="537" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="540" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="540" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="330" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="331" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="555" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="333" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="334" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="561" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="564" fontId="337" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="338" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="567" fontId="339" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="341" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="342" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="343" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="588" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="591" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14238,7 +15415,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15065,7 +16242,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>551</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -15096,6 +16273,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>552</v>
+      </c>
       <c r="Q16" t="s">
         <v>253</v>
       </c>
@@ -15123,7 +16303,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>553</v>
       </c>
       <c r="AA17" t="s">
         <v>513</v>
@@ -15146,7 +16326,7 @@
         <v>381</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>550</v>
@@ -15166,7 +16346,7 @@
         <v>522</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -15186,7 +16366,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -15206,7 +16386,7 @@
         <v>393</v>
       </c>
       <c r="X21" t="s">
-        <v>534</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -15226,7 +16406,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>534</v>
       </c>
     </row>
     <row r="23">
@@ -15243,7 +16423,7 @@
         <v>472</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -15260,7 +16440,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -15277,7 +16457,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -15291,7 +16471,7 @@
         <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -15305,7 +16485,7 @@
         <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -15319,7 +16499,7 @@
         <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29">
@@ -15333,7 +16513,7 @@
         <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -15344,7 +16524,7 @@
         <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -15355,7 +16535,7 @@
         <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -15366,7 +16546,7 @@
         <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -15377,7 +16557,7 @@
         <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -15388,7 +16568,7 @@
         <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -15399,7 +16579,7 @@
         <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -15410,7 +16590,7 @@
         <v>262</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -15421,7 +16601,7 @@
         <v>309</v>
       </c>
       <c r="X37" t="s">
-        <v>461</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -15432,7 +16612,7 @@
         <v>268</v>
       </c>
       <c r="X38" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39">
@@ -15440,7 +16620,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40">
@@ -15448,7 +16628,7 @@
         <v>213</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -15456,7 +16636,7 @@
         <v>290</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -15464,7 +16644,7 @@
         <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -15472,7 +16652,7 @@
         <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -15480,7 +16660,7 @@
         <v>344</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -15488,7 +16668,7 @@
         <v>343</v>
       </c>
       <c r="X45" t="s">
-        <v>474</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -15496,7 +16676,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47">
@@ -15504,7 +16684,7 @@
         <v>321</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -15512,7 +16692,7 @@
         <v>340</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -15520,7 +16700,7 @@
         <v>369</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -15528,7 +16708,7 @@
         <v>303</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -15536,7 +16716,7 @@
         <v>357</v>
       </c>
       <c r="X51" t="s">
-        <v>535</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -15544,7 +16724,7 @@
         <v>332</v>
       </c>
       <c r="X52" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53">
@@ -15552,7 +16732,7 @@
         <v>269</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54">
@@ -15560,7 +16740,7 @@
         <v>293</v>
       </c>
       <c r="X54" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -15568,7 +16748,7 @@
         <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>508</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
@@ -15576,7 +16756,7 @@
         <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57">
@@ -15584,7 +16764,7 @@
         <v>304</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -15592,7 +16772,7 @@
         <v>313</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -15600,7 +16780,7 @@
         <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -15608,7 +16788,7 @@
         <v>310</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -15616,7 +16796,7 @@
         <v>311</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -15624,7 +16804,7 @@
         <v>370</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -15632,7 +16812,7 @@
         <v>371</v>
       </c>
       <c r="X63" t="s">
-        <v>470</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -15640,7 +16820,7 @@
         <v>346</v>
       </c>
       <c r="X64" t="s">
-        <v>525</v>
+        <v>470</v>
       </c>
     </row>
     <row r="65">
@@ -15648,7 +16828,7 @@
         <v>314</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>525</v>
       </c>
     </row>
     <row r="66">
@@ -15656,7 +16836,7 @@
         <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -15664,7 +16844,7 @@
         <v>354</v>
       </c>
       <c r="X67" t="s">
-        <v>475</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68">
@@ -15672,7 +16852,7 @@
         <v>315</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69">
@@ -15680,7 +16860,7 @@
         <v>434</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -15688,7 +16868,7 @@
         <v>305</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -15696,7 +16876,7 @@
         <v>435</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -15704,7 +16884,7 @@
         <v>263</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -15712,7 +16892,7 @@
         <v>345</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -15720,7 +16900,7 @@
         <v>281</v>
       </c>
       <c r="X74" t="s">
-        <v>486</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -15728,7 +16908,7 @@
         <v>287</v>
       </c>
       <c r="X75" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
     </row>
     <row r="76">
@@ -15736,7 +16916,7 @@
         <v>292</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
     </row>
     <row r="77">
@@ -15744,7 +16924,7 @@
         <v>449</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -15752,7 +16932,7 @@
         <v>333</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -15760,7 +16940,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>547</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -15768,7 +16948,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>547</v>
       </c>
     </row>
     <row r="81">
@@ -15776,7 +16956,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -15784,7 +16964,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -15792,7 +16972,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>536</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -15800,7 +16980,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>536</v>
       </c>
     </row>
     <row r="85">
@@ -15808,7 +16988,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>485</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -15816,7 +16996,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87">
@@ -15824,7 +17004,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -15832,7 +17012,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -15840,7 +17020,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -15848,7 +17028,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -15856,7 +17036,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>462</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -15864,161 +17044,166 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>476</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -21,14 +21,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11281" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11797" uniqueCount="559">
   <si>
     <t>description</t>
   </si>
@@ -1907,13 +1907,28 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="360" x14ac:knownFonts="1">
+  <fonts count="376" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4191,8 +4206,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7577,8 +7693,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13820,6 +14089,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13827,7 +14378,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="386">
+  <cellXfs count="402">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14957,52 +15508,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="347" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="582" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="582" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="350" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="588" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="588" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="591" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="591" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="594" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="594" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15415,7 +16014,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15845,6 +16444,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>554</v>
+      </c>
       <c r="G6" t="s">
         <v>389</v>
       </c>
@@ -15967,7 +16569,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>555</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -16020,7 +16622,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -16061,7 +16663,7 @@
         <v>484</v>
       </c>
       <c r="K10" t="s">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -16099,7 +16701,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>556</v>
       </c>
       <c r="M11" t="s">
         <v>523</v>
@@ -16134,7 +16736,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="M12" t="s">
         <v>473</v>
@@ -16169,7 +16771,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>524</v>
@@ -16204,7 +16806,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -16236,7 +16838,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>505</v>
+        <v>557</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -16268,7 +16870,7 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -16300,7 +16902,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>553</v>
@@ -16323,7 +16925,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>505</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -16343,7 +16945,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>522</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -16363,7 +16965,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -16383,7 +16985,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -16403,7 +17005,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>522</v>
       </c>
       <c r="X22" t="s">
         <v>534</v>
@@ -16420,7 +17022,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>472</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -16437,7 +17039,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -16454,7 +17056,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -16470,6 +17072,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>472</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -16484,6 +17089,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -16498,6 +17106,9 @@
       <c r="G28" t="s">
         <v>284</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>328</v>
       </c>
@@ -17084,126 +17695,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>150</v>
+        <v>558</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>476</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11797" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12315" uniqueCount="561">
   <si>
     <t>description</t>
   </si>
@@ -1922,13 +1922,19 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="376" x14ac:knownFonts="1">
+  <fonts count="392" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4307,8 +4313,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7846,8 +7953,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -14371,6 +14631,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14378,7 +14920,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="402">
+  <cellXfs count="418">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15556,52 +16098,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="359" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="362" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="363" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="609" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="609" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="612" fontId="366" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="615" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="615" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="618" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="618" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="621" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="621" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="374" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17165,7 +17755,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>559</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -17176,7 +17766,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -17187,7 +17777,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -17198,7 +17788,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -17209,7 +17799,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -17220,7 +17810,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
         <v>461</v>
@@ -17228,7 +17818,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>394</v>
@@ -17236,7 +17826,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -17244,7 +17834,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -17252,7 +17842,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -17260,7 +17850,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -17268,7 +17858,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -17276,7 +17866,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -17284,7 +17874,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>474</v>
@@ -17292,7 +17882,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -17300,7 +17890,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -17308,7 +17898,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -17316,7 +17906,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -17324,7 +17914,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -17332,7 +17922,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="X52" t="s">
         <v>535</v>
@@ -17340,7 +17930,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>515</v>
@@ -17348,7 +17938,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -17356,7 +17946,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>347</v>
@@ -17364,7 +17954,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>508</v>
@@ -17372,7 +17962,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -17380,7 +17970,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -17388,7 +17978,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -17396,7 +17986,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -17404,7 +17994,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -17412,7 +18002,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -17420,7 +18010,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -17428,7 +18018,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="X64" t="s">
         <v>470</v>
@@ -17436,7 +18026,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>525</v>
@@ -17444,7 +18034,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -17452,7 +18042,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>390</v>
@@ -17460,7 +18050,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="X68" t="s">
         <v>475</v>
@@ -17468,7 +18058,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>434</v>
+        <v>315</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -17476,7 +18066,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>305</v>
+        <v>434</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -17484,7 +18074,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>435</v>
+        <v>305</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -17492,7 +18082,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>435</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -17500,7 +18090,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -17508,7 +18098,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>560</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -17516,7 +18106,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>486</v>
@@ -17524,7 +18114,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>519</v>
@@ -17532,7 +18122,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>449</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -17540,7 +18130,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -17548,7 +18138,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>449</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -17556,7 +18146,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>547</v>
@@ -17564,7 +18154,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -17572,7 +18162,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -17580,7 +18170,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -17588,7 +18178,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>536</v>
@@ -17596,7 +18186,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -17604,7 +18194,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>485</v>
@@ -17612,7 +18202,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -17620,7 +18210,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -17628,7 +18218,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -17636,7 +18226,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -17644,7 +18234,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -17652,18 +18242,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12315" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12835" uniqueCount="563">
   <si>
     <t>description</t>
   </si>
@@ -1928,13 +1928,19 @@
   <si>
     <t>saveTextByLocator(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="392" x14ac:knownFonts="1">
+  <fonts count="408" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4414,8 +4420,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="682">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8106,8 +8213,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -14913,6 +15190,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14920,7 +15479,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="434">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16146,52 +16705,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="377" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="378" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="379" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="636" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="381" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="382" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="642" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="391" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16604,7 +17211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18296,126 +18903,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>561</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>562</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>476</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>476</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -31,28 +31,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12835" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13363" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1934,13 +1935,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="408" x14ac:knownFonts="1">
+  <fonts count="424" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4521,8 +4543,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="682">
+  <fills count="712">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8383,8 +8506,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="731">
     <border>
       <left/>
       <right/>
@@ -15472,6 +15765,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15479,7 +16054,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="434">
+  <cellXfs count="450">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16753,52 +17328,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="394" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="395" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="397" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="398" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="402" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="403" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="406" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="681" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="684" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="687" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="693" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="699" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="702" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="705" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="705" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="708" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17211,7 +17834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17263,51 +17886,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>563</v>
+      </c>
+      <c r="O1" t="s">
         <v>528</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>397</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>444</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>445</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>358</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>398</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>446</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -17352,51 +17978,54 @@
         <v>450</v>
       </c>
       <c r="N2" t="s">
+        <v>564</v>
+      </c>
+      <c r="O2" t="s">
         <v>531</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>451</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>452</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>254</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>399</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>456</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>457</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>382</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>408</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>463</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>542</v>
       </c>
     </row>
@@ -17441,45 +18070,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>565</v>
+      </c>
+      <c r="O3" t="s">
         <v>532</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>453</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>241</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>219</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>400</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>458</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>383</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>409</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>365</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -17521,45 +18153,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>566</v>
+      </c>
+      <c r="O4" t="s">
         <v>533</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>242</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>220</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>401</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>459</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>410</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>464</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -17594,40 +18229,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>243</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>221</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>402</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>460</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>356</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>465</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -17659,37 +18297,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>244</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>392</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>403</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>477</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>466</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -17715,37 +18356,40 @@
       <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>245</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>455</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>404</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>478</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>467</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -17771,34 +18415,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>246</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>405</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>468</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -17824,25 +18468,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>247</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>406</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -17865,22 +18509,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>454</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>248</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>526</v>
       </c>
     </row>
@@ -17903,19 +18547,19 @@
       <c r="M11" t="s">
         <v>523</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>543</v>
       </c>
     </row>
@@ -17938,19 +18582,19 @@
       <c r="M12" t="s">
         <v>473</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>544</v>
       </c>
     </row>
@@ -17973,25 +18617,25 @@
       <c r="M13" t="s">
         <v>524</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>528</v>
+        <v>563</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -18008,25 +18652,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>528</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -18040,25 +18684,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>551</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>386</v>
@@ -18072,25 +18716,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>552</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>387</v>
@@ -18101,19 +18745,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>553</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>513</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>447</v>
@@ -18124,16 +18768,16 @@
       <c r="K18" t="s">
         <v>505</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -18144,16 +18788,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -18164,16 +18808,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E21" t="s">
         <v>257</v>
@@ -18184,16 +18828,16 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>445</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -18204,13 +18848,13 @@
       <c r="K22" t="s">
         <v>522</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="E23" t="s">
         <v>322</v>
@@ -18221,13 +18865,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -18238,13 +18882,13 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>481</v>
@@ -18255,13 +18899,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -18272,13 +18916,13 @@
       <c r="K26" t="s">
         <v>472</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -18289,13 +18933,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>446</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>520</v>
@@ -18306,13 +18950,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>446</v>
       </c>
       <c r="E29" t="s">
         <v>521</v>
@@ -18320,18 +18964,21 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" t="s">
         <v>448</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18342,7 +18989,7 @@
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -18353,7 +19000,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -18364,7 +19011,7 @@
       <c r="G33" t="s">
         <v>559</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -18375,7 +19022,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -18386,7 +19033,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -18397,7 +19044,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -18408,7 +19055,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -18419,7 +19066,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>461</v>
       </c>
     </row>
@@ -18427,7 +19074,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>394</v>
       </c>
     </row>
@@ -18435,7 +19082,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -18443,7 +19090,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -18451,7 +19098,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -18459,7 +19106,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -18467,7 +19114,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -18475,7 +19122,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -18483,7 +19130,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>474</v>
       </c>
     </row>
@@ -18491,7 +19138,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -18499,7 +19146,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -18507,7 +19154,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -18515,7 +19162,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -18523,7 +19170,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -18531,7 +19178,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>535</v>
       </c>
     </row>
@@ -18539,7 +19186,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>515</v>
       </c>
     </row>
@@ -18547,7 +19194,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -18555,7 +19202,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>347</v>
       </c>
     </row>
@@ -18563,7 +19210,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>508</v>
       </c>
     </row>
@@ -18571,7 +19218,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -18579,7 +19226,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -18587,7 +19234,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -18595,7 +19242,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -18603,7 +19250,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -18611,7 +19258,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -18619,7 +19266,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -18627,7 +19274,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>470</v>
       </c>
     </row>
@@ -18635,7 +19282,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>525</v>
       </c>
     </row>
@@ -18643,7 +19290,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -18651,7 +19298,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>390</v>
       </c>
     </row>
@@ -18659,7 +19306,7 @@
       <c r="G68" t="s">
         <v>354</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>475</v>
       </c>
     </row>
@@ -18667,7 +19314,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -18675,7 +19322,7 @@
       <c r="G70" t="s">
         <v>434</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -18683,7 +19330,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -18691,7 +19338,7 @@
       <c r="G72" t="s">
         <v>435</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -18699,7 +19346,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -18707,7 +19354,7 @@
       <c r="G74" t="s">
         <v>560</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -18715,7 +19362,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>486</v>
       </c>
     </row>
@@ -18723,7 +19370,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>519</v>
       </c>
     </row>
@@ -18731,7 +19378,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -18739,7 +19386,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -18747,7 +19394,7 @@
       <c r="G79" t="s">
         <v>449</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -18755,7 +19402,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>547</v>
       </c>
     </row>
@@ -18763,7 +19410,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -18771,7 +19418,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -18779,7 +19426,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -18787,7 +19434,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>536</v>
       </c>
     </row>
@@ -18795,7 +19442,7 @@
       <c r="G85" t="s">
         <v>272</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -18803,7 +19450,7 @@
       <c r="G86" t="s">
         <v>289</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>485</v>
       </c>
     </row>
@@ -18811,7 +19458,7 @@
       <c r="G87" t="s">
         <v>273</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -18819,7 +19466,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>203</v>
       </c>
     </row>
@@ -18827,7 +19474,7 @@
       <c r="G89" t="s">
         <v>306</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -18835,7 +19482,7 @@
       <c r="G90" t="s">
         <v>312</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -18843,7 +19490,7 @@
       <c r="G91" t="s">
         <v>296</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -18851,7 +19498,7 @@
       <c r="G92" t="s">
         <v>341</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>462</v>
       </c>
     </row>
@@ -18859,7 +19506,7 @@
       <c r="G93" t="s">
         <v>278</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>469</v>
       </c>
     </row>
@@ -18867,172 +19514,172 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -53,7 +53,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13363" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14426" uniqueCount="574">
   <si>
     <t>description</t>
   </si>
@@ -1956,13 +1956,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="424" x14ac:knownFonts="1">
+  <fonts count="456" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4644,8 +4656,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="712">
+  <fills count="772">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8676,8 +8890,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="731">
+  <borders count="787">
     <border>
       <left/>
       <right/>
@@ -16047,6 +16601,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16054,7 +17172,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="450">
+  <cellXfs count="482">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17376,52 +18494,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="681" fontId="407" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="684" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="684" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="409" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="687" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="687" fontId="410" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="411" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="693" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="693" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="413" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="696" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="696" fontId="414" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="699" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="699" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="702" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="702" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="705" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="705" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="705" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="705" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="708" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="708" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="711" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="714" fontId="424" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="425" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="717" fontId="426" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="720" fontId="427" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="723" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="429" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="430" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="729" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="732" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="735" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="735" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="723" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="741" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="744" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="747" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="750" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="753" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="759" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="762" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="765" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="765" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18230,7 +19444,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -18298,7 +19512,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -18357,7 +19571,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -18415,6 +19629,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>567</v>
+      </c>
       <c r="Q8" t="s">
         <v>92</v>
       </c>
@@ -18468,6 +19685,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>568</v>
+      </c>
       <c r="Q9" t="s">
         <v>93</v>
       </c>
@@ -18509,6 +19729,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>569</v>
+      </c>
       <c r="Q10" t="s">
         <v>454</v>
       </c>
@@ -18897,7 +20120,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>573</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>
@@ -18914,7 +20137,7 @@
         <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>472</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
         <v>114</v>
@@ -18931,7 +20154,7 @@
         <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>472</v>
       </c>
       <c r="Y27" t="s">
         <v>115</v>
@@ -18948,7 +20171,7 @@
         <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>328</v>
@@ -18963,6 +20186,9 @@
       </c>
       <c r="G29" t="s">
         <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>116</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -52,8 +52,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14426" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14961" uniqueCount="578">
   <si>
     <t>description</t>
   </si>
@@ -1968,13 +1968,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="456" x14ac:knownFonts="1">
+  <fonts count="472" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4858,8 +4870,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="772">
+  <fills count="802">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9230,8 +9343,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="787">
+  <borders count="815">
     <border>
       <left/>
       <right/>
@@ -17165,6 +17448,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17172,7 +17737,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="482">
+  <cellXfs count="498">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18590,52 +19155,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="741" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="744" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="744" fontId="440" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="441" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="747" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="747" fontId="442" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="750" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="750" fontId="443" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="753" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="753" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="445" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="756" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="446" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="759" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="759" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="762" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="762" fontId="449" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="765" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="765" fontId="450" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="765" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="765" fontId="451" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="768" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="753" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="774" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="777" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="780" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="783" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="789" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="792" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="795" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="795" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19254,7 +19867,7 @@
         <v>511</v>
       </c>
       <c r="D3" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="E3" t="s">
         <v>506</v>
@@ -19337,7 +19950,7 @@
         <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -19420,7 +20033,7 @@
         <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E5" t="s">
         <v>507</v>
@@ -19444,7 +20057,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -19490,6 +20103,9 @@
       <c r="B6" t="s">
         <v>377</v>
       </c>
+      <c r="D6" t="s">
+        <v>541</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -19512,7 +20128,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -19571,7 +20187,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -19630,7 +20246,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="Q8" t="s">
         <v>92</v>
@@ -19686,7 +20302,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="Q9" t="s">
         <v>93</v>
@@ -19730,7 +20346,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="Q10" t="s">
         <v>454</v>
@@ -19770,6 +20386,9 @@
       <c r="M11" t="s">
         <v>523</v>
       </c>
+      <c r="N11" t="s">
+        <v>568</v>
+      </c>
       <c r="Q11" t="s">
         <v>94</v>
       </c>
@@ -19805,6 +20424,9 @@
       <c r="M12" t="s">
         <v>473</v>
       </c>
+      <c r="N12" t="s">
+        <v>569</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -20120,7 +20742,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -26,7 +26,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14961" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15498" uniqueCount="580">
   <si>
     <t>description</t>
   </si>
@@ -1980,13 +1980,19 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="472" x14ac:knownFonts="1">
+  <fonts count="488" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4971,8 +4977,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="802">
+  <fills count="832">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9513,8 +9620,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="815">
+  <borders count="843">
     <border>
       <left/>
       <right/>
@@ -17730,6 +18007,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17737,7 +18296,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="498">
+  <cellXfs count="514">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19203,52 +19762,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="774" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="774" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="777" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="777" fontId="458" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="780" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="780" fontId="459" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="783" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="783" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="461" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="462" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="463" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="789" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="789" fontId="464" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="792" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="792" fontId="465" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="795" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="795" fontId="466" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="795" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="795" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="468" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="798" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="470" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="801" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="804" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="807" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="810" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="813" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="819" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="822" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="825" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="825" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="831" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19661,7 +20268,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20047,6 +20654,9 @@
       <c r="H5" t="s">
         <v>504</v>
       </c>
+      <c r="I5" t="s">
+        <v>578</v>
+      </c>
       <c r="J5" t="s">
         <v>352</v>
       </c>
@@ -20923,7 +21533,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>394</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40">
@@ -20931,7 +21541,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41">
@@ -20939,7 +21549,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -20947,7 +21557,7 @@
         <v>290</v>
       </c>
       <c r="Y42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -20955,7 +21565,7 @@
         <v>301</v>
       </c>
       <c r="Y43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -20963,7 +21573,7 @@
         <v>302</v>
       </c>
       <c r="Y44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -20971,7 +21581,7 @@
         <v>344</v>
       </c>
       <c r="Y45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -20979,7 +21589,7 @@
         <v>343</v>
       </c>
       <c r="Y46" t="s">
-        <v>474</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -20987,7 +21597,7 @@
         <v>212</v>
       </c>
       <c r="Y47" t="s">
-        <v>214</v>
+        <v>474</v>
       </c>
     </row>
     <row r="48">
@@ -20995,7 +21605,7 @@
         <v>321</v>
       </c>
       <c r="Y48" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
@@ -21003,7 +21613,7 @@
         <v>340</v>
       </c>
       <c r="Y49" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -21011,7 +21621,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -21019,7 +21629,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -21027,7 +21637,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>535</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -21035,7 +21645,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54">
@@ -21043,7 +21653,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>132</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55">
@@ -21051,7 +21661,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -21059,7 +21669,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>508</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57">
@@ -21067,7 +21677,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>133</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58">
@@ -21075,7 +21685,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59">
@@ -21083,7 +21693,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
@@ -21091,7 +21701,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -21099,7 +21709,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62">
@@ -21107,7 +21717,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63">
@@ -21115,7 +21725,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -21123,7 +21733,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>470</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -21131,7 +21741,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>525</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66">
@@ -21139,7 +21749,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>215</v>
+        <v>525</v>
       </c>
     </row>
     <row r="67">
@@ -21147,7 +21757,7 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
@@ -21155,7 +21765,7 @@
         <v>354</v>
       </c>
       <c r="Y68" t="s">
-        <v>475</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69">
@@ -21163,7 +21773,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>140</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70">
@@ -21171,7 +21781,7 @@
         <v>434</v>
       </c>
       <c r="Y70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -21179,7 +21789,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
@@ -21187,7 +21797,7 @@
         <v>435</v>
       </c>
       <c r="Y72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -21195,7 +21805,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -21203,7 +21813,7 @@
         <v>560</v>
       </c>
       <c r="Y74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75">
@@ -21211,7 +21821,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>486</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -21219,7 +21829,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
     </row>
     <row r="77">
@@ -21227,7 +21837,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78">
@@ -21235,7 +21845,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79">
@@ -21243,7 +21853,7 @@
         <v>449</v>
       </c>
       <c r="Y79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
@@ -21251,7 +21861,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>547</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81">
@@ -21259,7 +21869,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>147</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82">
@@ -21267,7 +21877,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -21275,7 +21885,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -21283,7 +21893,7 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>536</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -21291,7 +21901,7 @@
         <v>272</v>
       </c>
       <c r="Y85" t="s">
-        <v>201</v>
+        <v>536</v>
       </c>
     </row>
     <row r="86">
@@ -21299,7 +21909,7 @@
         <v>289</v>
       </c>
       <c r="Y86" t="s">
-        <v>485</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -21307,7 +21917,7 @@
         <v>273</v>
       </c>
       <c r="Y87" t="s">
-        <v>202</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88">
@@ -21315,7 +21925,7 @@
         <v>274</v>
       </c>
       <c r="Y88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -21323,7 +21933,7 @@
         <v>306</v>
       </c>
       <c r="Y89" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
@@ -21331,7 +21941,7 @@
         <v>312</v>
       </c>
       <c r="Y90" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -21339,7 +21949,7 @@
         <v>296</v>
       </c>
       <c r="Y91" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
@@ -21347,7 +21957,7 @@
         <v>341</v>
       </c>
       <c r="Y92" t="s">
-        <v>462</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93">
@@ -21355,7 +21965,7 @@
         <v>278</v>
       </c>
       <c r="Y93" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94">
@@ -21363,171 +21973,176 @@
         <v>279</v>
       </c>
       <c r="Y94" t="s">
-        <v>205</v>
+        <v>469</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>558</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>150</v>
+        <v>561</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>562</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>384</v>
+        <v>562</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>476</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -24,13 +24,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -44,12 +44,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15498" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16045" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1986,13 +1986,46 @@
   <si>
     <t>assertTextNotContains(locator,text)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="488" x14ac:knownFonts="1">
+  <fonts count="504" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5078,8 +5111,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="832">
+  <fills count="859">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9790,8 +9924,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="843">
+  <borders count="875">
     <border>
       <left/>
       <right/>
@@ -18289,6 +18576,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18296,7 +18909,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="514">
+  <cellXfs count="530">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19810,52 +20423,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="471" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="804" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="804" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="807" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="807" fontId="474" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="810" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="810" fontId="475" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="813" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="813" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="477" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="816" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="816" fontId="478" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="819" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="819" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="822" borderId="838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="822" fontId="481" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="825" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="825" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="825" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="825" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="813" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="831" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="831" fontId="487" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="834" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="837" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="840" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="843" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="849" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="840" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="852" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="852" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="858" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20268,7 +20929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20790,6 +21451,9 @@
       <c r="H7" t="s">
         <v>479</v>
       </c>
+      <c r="J7" t="s">
+        <v>582</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -20830,7 +21494,7 @@
         <v>467</v>
       </c>
       <c r="AD7" t="s">
-        <v>233</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8">
@@ -20886,7 +21550,7 @@
         <v>468</v>
       </c>
       <c r="AD8" t="s">
-        <v>234</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9">
@@ -20933,7 +21597,7 @@
         <v>190</v>
       </c>
       <c r="AD9" t="s">
-        <v>235</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10">
@@ -20974,7 +21638,7 @@
         <v>191</v>
       </c>
       <c r="AD10" t="s">
-        <v>526</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -21012,7 +21676,7 @@
         <v>260</v>
       </c>
       <c r="AD11" t="s">
-        <v>543</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -21032,7 +21696,7 @@
         <v>391</v>
       </c>
       <c r="M12" t="s">
-        <v>473</v>
+        <v>583</v>
       </c>
       <c r="N12" t="s">
         <v>569</v>
@@ -21050,7 +21714,7 @@
         <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>544</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -21070,7 +21734,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>524</v>
+        <v>473</v>
       </c>
       <c r="Q13" t="s">
         <v>95</v>
@@ -21085,7 +21749,7 @@
         <v>193</v>
       </c>
       <c r="AD13" t="s">
-        <v>548</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14">
@@ -21105,7 +21769,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>524</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
@@ -21120,7 +21784,7 @@
         <v>194</v>
       </c>
       <c r="AD14" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15">
@@ -21137,7 +21801,7 @@
         <v>557</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>551</v>
@@ -21152,7 +21816,7 @@
         <v>195</v>
       </c>
       <c r="AD15" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16">
@@ -21169,7 +21833,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
         <v>552</v>
@@ -21184,7 +21848,7 @@
         <v>196</v>
       </c>
       <c r="AD16" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17">
@@ -21200,6 +21864,9 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
       <c r="Y17" t="s">
         <v>553</v>
       </c>
@@ -21207,7 +21874,7 @@
         <v>513</v>
       </c>
       <c r="AD17" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18">
@@ -21227,7 +21894,7 @@
         <v>106</v>
       </c>
       <c r="AD18" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
     </row>
     <row r="19">
@@ -21247,7 +21914,7 @@
         <v>107</v>
       </c>
       <c r="AD19" t="s">
-        <v>236</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20">
@@ -21267,7 +21934,7 @@
         <v>108</v>
       </c>
       <c r="AD20" t="s">
-        <v>237</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21">
@@ -21287,7 +21954,7 @@
         <v>109</v>
       </c>
       <c r="AD21" t="s">
-        <v>238</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22">
@@ -21306,6 +21973,9 @@
       <c r="Y22" t="s">
         <v>534</v>
       </c>
+      <c r="AD22" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -21323,6 +21993,9 @@
       <c r="Y23" t="s">
         <v>111</v>
       </c>
+      <c r="AD23" t="s">
+        <v>588</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -21340,6 +22013,9 @@
       <c r="Y24" t="s">
         <v>112</v>
       </c>
+      <c r="AD24" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -21357,6 +22033,9 @@
       <c r="Y25" t="s">
         <v>113</v>
       </c>
+      <c r="AD25" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -21374,6 +22053,9 @@
       <c r="Y26" t="s">
         <v>114</v>
       </c>
+      <c r="AD26" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -21391,6 +22073,9 @@
       <c r="Y27" t="s">
         <v>115</v>
       </c>
+      <c r="AD27" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -21621,7 +22306,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>129</v>
+        <v>584</v>
       </c>
     </row>
     <row r="51">
@@ -21629,7 +22314,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -21637,7 +22322,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -21645,7 +22330,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>535</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -21653,7 +22338,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
     </row>
     <row r="55">
@@ -21661,7 +22346,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>132</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56">
@@ -21669,7 +22354,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
@@ -21677,7 +22362,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>508</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
@@ -21685,7 +22370,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>133</v>
+        <v>508</v>
       </c>
     </row>
     <row r="59">
@@ -21693,7 +22378,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -21701,7 +22386,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -21709,7 +22394,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -21717,7 +22402,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -21725,7 +22410,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -21733,7 +22418,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -21741,7 +22426,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>470</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -21749,7 +22434,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>525</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67">
@@ -21757,15 +22442,15 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>215</v>
+        <v>525</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>354</v>
+        <v>580</v>
       </c>
       <c r="Y68" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69">
@@ -21773,7 +22458,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>475</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70">
@@ -21781,7 +22466,7 @@
         <v>434</v>
       </c>
       <c r="Y70" t="s">
-        <v>140</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71">
@@ -21789,7 +22474,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -21797,7 +22482,7 @@
         <v>435</v>
       </c>
       <c r="Y72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -21805,7 +22490,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74">
@@ -21813,7 +22498,7 @@
         <v>560</v>
       </c>
       <c r="Y74" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -21821,7 +22506,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
@@ -21829,7 +22514,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>486</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
@@ -21837,7 +22522,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>519</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78">
@@ -21845,7 +22530,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>144</v>
+        <v>519</v>
       </c>
     </row>
     <row r="79">
@@ -21853,7 +22538,7 @@
         <v>449</v>
       </c>
       <c r="Y79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -21861,7 +22546,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -21869,7 +22554,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>547</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -21877,7 +22562,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>147</v>
+        <v>547</v>
       </c>
     </row>
     <row r="83">
@@ -21885,7 +22570,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -21893,256 +22578,264 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>272</v>
+        <v>581</v>
       </c>
       <c r="Y85" t="s">
-        <v>536</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y86" t="s">
-        <v>201</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y87" t="s">
-        <v>485</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y88" t="s">
-        <v>202</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Y89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y90" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Y91" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y92" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y93" t="s">
-        <v>462</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>558</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>150</v>
+        <v>561</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>562</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>384</v>
+        <v>562</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>476</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -43,17 +43,18 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16045" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16596" uniqueCount="594">
   <si>
     <t>description</t>
   </si>
@@ -2019,13 +2020,22 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="504" x14ac:knownFonts="1">
+  <fonts count="520" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5212,8 +5222,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="859">
+  <fills count="886">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10077,8 +10188,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="875">
+  <borders count="907">
     <border>
       <left/>
       <right/>
@@ -18902,6 +19166,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18909,7 +19499,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="530">
+  <cellXfs count="546">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20471,52 +21061,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="831" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="834" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="834" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="837" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="837" fontId="490" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="840" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="840" fontId="491" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="843" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="843" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="493" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="846" fontId="494" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="849" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="849" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="840" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="840" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="852" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="852" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="852" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="852" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="843" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="501" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="843" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="843" fontId="502" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="858" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="858" fontId="503" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="861" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="864" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="867" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="870" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="873" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="876" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="867" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="879" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="879" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="870" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="870" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="885" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20929,7 +21567,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21014,21 +21652,24 @@
         <v>398</v>
       </c>
       <c r="Y1" t="s">
+        <v>591</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>446</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -21106,21 +21747,24 @@
         <v>408</v>
       </c>
       <c r="Y2" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>463</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>542</v>
       </c>
     </row>
@@ -21191,22 +21835,22 @@
       <c r="X3" t="s">
         <v>409</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -21274,22 +21918,22 @@
       <c r="X4" t="s">
         <v>410</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>464</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -21348,22 +21992,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>356</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>465</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -21416,22 +22060,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>477</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>466</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -21478,22 +22122,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>478</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>467</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>585</v>
       </c>
     </row>
@@ -21534,22 +22178,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>468</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>586</v>
       </c>
     </row>
@@ -21590,13 +22234,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>587</v>
       </c>
     </row>
@@ -21631,13 +22275,13 @@
       <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -21669,13 +22313,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -21707,13 +22351,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -21742,13 +22386,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>526</v>
       </c>
     </row>
@@ -21777,13 +22421,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>543</v>
       </c>
     </row>
@@ -21809,13 +22453,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>544</v>
       </c>
     </row>
@@ -21841,13 +22485,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>548</v>
       </c>
     </row>
@@ -21867,13 +22511,13 @@
       <c r="M17" t="s">
         <v>43</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>553</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>513</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>549</v>
       </c>
     </row>
@@ -21890,10 +22534,10 @@
       <c r="K18" t="s">
         <v>505</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>527</v>
       </c>
     </row>
@@ -21910,10 +22554,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>545</v>
       </c>
     </row>
@@ -21930,10 +22574,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>546</v>
       </c>
     </row>
@@ -21950,10 +22594,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>550</v>
       </c>
     </row>
@@ -21962,7 +22606,7 @@
         <v>445</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>592</v>
       </c>
       <c r="G22" t="s">
         <v>300</v>
@@ -21970,10 +22614,10 @@
       <c r="K22" t="s">
         <v>522</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>534</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -21982,7 +22626,7 @@
         <v>358</v>
       </c>
       <c r="E23" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>291</v>
@@ -21990,10 +22634,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>588</v>
       </c>
     </row>
@@ -22002,7 +22646,7 @@
         <v>398</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="G24" t="s">
         <v>280</v>
@@ -22010,19 +22654,19 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>112</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>591</v>
       </c>
       <c r="E25" t="s">
-        <v>481</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -22030,19 +22674,19 @@
       <c r="K25" t="s">
         <v>575</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>113</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>481</v>
       </c>
       <c r="G26" t="s">
         <v>283</v>
@@ -22050,19 +22694,19 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>114</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>267</v>
@@ -22070,19 +22714,19 @@
       <c r="K27" t="s">
         <v>472</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>115</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>520</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
         <v>284</v>
@@ -22090,16 +22734,16 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>446</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G29" t="s">
         <v>285</v>
@@ -22107,117 +22751,123 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>446</v>
       </c>
       <c r="E30" t="s">
-        <v>448</v>
+        <v>521</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>448</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>559</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>579</v>
       </c>
     </row>
@@ -22225,7 +22875,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>394</v>
       </c>
     </row>
@@ -22233,7 +22883,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22241,7 +22891,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -22249,7 +22899,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -22257,7 +22907,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -22265,7 +22915,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -22273,7 +22923,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -22281,7 +22931,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>474</v>
       </c>
     </row>
@@ -22289,7 +22939,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -22297,7 +22947,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -22305,7 +22955,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>584</v>
       </c>
     </row>
@@ -22313,7 +22963,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -22321,7 +22971,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -22329,7 +22979,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -22337,7 +22987,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>535</v>
       </c>
     </row>
@@ -22345,7 +22995,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>515</v>
       </c>
     </row>
@@ -22353,7 +23003,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -22361,7 +23011,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -22369,7 +23019,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>508</v>
       </c>
     </row>
@@ -22377,7 +23027,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -22385,7 +23035,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -22393,7 +23043,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -22401,7 +23051,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22409,7 +23059,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -22417,7 +23067,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -22425,7 +23075,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -22433,7 +23083,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>470</v>
       </c>
     </row>
@@ -22441,7 +23091,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>525</v>
       </c>
     </row>
@@ -22449,7 +23099,7 @@
       <c r="G68" t="s">
         <v>580</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -22457,7 +23107,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -22465,7 +23115,7 @@
       <c r="G70" t="s">
         <v>434</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>475</v>
       </c>
     </row>
@@ -22473,7 +23123,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -22481,7 +23131,7 @@
       <c r="G72" t="s">
         <v>435</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -22489,7 +23139,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -22497,7 +23147,7 @@
       <c r="G74" t="s">
         <v>560</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -22505,7 +23155,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -22513,7 +23163,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -22521,7 +23171,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>486</v>
       </c>
     </row>
@@ -22529,7 +23179,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>519</v>
       </c>
     </row>
@@ -22537,7 +23187,7 @@
       <c r="G79" t="s">
         <v>449</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -22545,7 +23195,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -22553,7 +23203,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -22561,7 +23211,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>547</v>
       </c>
     </row>
@@ -22569,7 +23219,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -22577,7 +23227,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -22585,7 +23235,7 @@
       <c r="G85" t="s">
         <v>581</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -22593,7 +23243,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>536</v>
       </c>
     </row>
@@ -22601,7 +23251,7 @@
       <c r="G87" t="s">
         <v>289</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -22609,7 +23259,7 @@
       <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>485</v>
       </c>
     </row>
@@ -22617,7 +23267,7 @@
       <c r="G89" t="s">
         <v>274</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -22625,7 +23275,7 @@
       <c r="G90" t="s">
         <v>306</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -22633,7 +23283,7 @@
       <c r="G91" t="s">
         <v>312</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -22641,7 +23291,7 @@
       <c r="G92" t="s">
         <v>296</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -22649,7 +23299,7 @@
       <c r="G93" t="s">
         <v>341</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -22657,7 +23307,7 @@
       <c r="G94" t="s">
         <v>278</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>462</v>
       </c>
     </row>
@@ -22665,177 +23315,177 @@
       <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16596" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17149" uniqueCount="596">
   <si>
     <t>description</t>
   </si>
@@ -2029,13 +2029,19 @@
   <si>
     <t>spellCheck(var,profile,text)</t>
   </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="520" x14ac:knownFonts="1">
+  <fonts count="536" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5323,8 +5329,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="886">
+  <fills count="913">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10341,8 +10448,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="907">
+  <borders count="939">
     <border>
       <left/>
       <right/>
@@ -19492,6 +19752,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19499,7 +20085,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="546">
+  <cellXfs count="562">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21109,52 +21695,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="858" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="861" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="861" fontId="504" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="505" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="864" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="864" fontId="506" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="867" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="867" fontId="507" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="870" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="870" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="509" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="873" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="873" fontId="510" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="876" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="876" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="867" borderId="902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="902" fillId="867" fontId="513" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="879" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="879" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="879" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="879" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="870" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="870" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="870" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="870" fontId="518" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="885" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="885" fontId="519" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="888" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="891" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="894" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="897" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="903" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="894" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="906" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="906" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22889,7 +23523,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>290</v>
+        <v>594</v>
       </c>
       <c r="Z42" t="s">
         <v>124</v>
@@ -22897,7 +23531,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Z43" t="s">
         <v>125</v>
@@ -22905,7 +23539,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z44" t="s">
         <v>126</v>
@@ -22913,7 +23547,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Z45" t="s">
         <v>127</v>
@@ -22921,7 +23555,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z46" t="s">
         <v>128</v>
@@ -22929,7 +23563,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Z47" t="s">
         <v>474</v>
@@ -22937,7 +23571,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Z48" t="s">
         <v>214</v>
@@ -22945,7 +23579,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Z49" t="s">
         <v>78</v>
@@ -22953,7 +23587,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Z50" t="s">
         <v>584</v>
@@ -22961,7 +23595,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -22969,7 +23603,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="Z52" t="s">
         <v>130</v>
@@ -22977,7 +23611,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Z53" t="s">
         <v>131</v>
@@ -22985,7 +23619,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Z54" t="s">
         <v>535</v>
@@ -22993,7 +23627,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Z55" t="s">
         <v>515</v>
@@ -23001,7 +23635,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z56" t="s">
         <v>132</v>
@@ -23009,7 +23643,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z57" t="s">
         <v>347</v>
@@ -23017,7 +23651,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>304</v>
+        <v>595</v>
       </c>
       <c r="Z58" t="s">
         <v>508</v>
@@ -23025,7 +23659,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="Z59" t="s">
         <v>133</v>
@@ -23033,7 +23667,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="Z60" t="s">
         <v>134</v>
@@ -23041,7 +23675,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z61" t="s">
         <v>135</v>
@@ -23049,7 +23683,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="Z62" t="s">
         <v>136</v>
@@ -23057,7 +23691,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="Z63" t="s">
         <v>137</v>
@@ -23065,7 +23699,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="Z64" t="s">
         <v>138</v>
@@ -23073,7 +23707,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="Z65" t="s">
         <v>139</v>
@@ -23081,7 +23715,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="Z66" t="s">
         <v>470</v>
@@ -23089,7 +23723,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="Z67" t="s">
         <v>525</v>
@@ -23097,7 +23731,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>580</v>
+        <v>314</v>
       </c>
       <c r="Z68" t="s">
         <v>215</v>
@@ -23105,7 +23739,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z69" t="s">
         <v>390</v>
@@ -23113,7 +23747,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>434</v>
+        <v>580</v>
       </c>
       <c r="Z70" t="s">
         <v>475</v>
@@ -23121,7 +23755,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Z71" t="s">
         <v>140</v>
@@ -23129,7 +23763,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="Z72" t="s">
         <v>141</v>
@@ -23137,7 +23771,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="Z73" t="s">
         <v>142</v>
@@ -23145,7 +23779,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>560</v>
+        <v>435</v>
       </c>
       <c r="Z74" t="s">
         <v>143</v>
@@ -23153,7 +23787,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="Z75" t="s">
         <v>198</v>
@@ -23161,7 +23795,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>281</v>
+        <v>560</v>
       </c>
       <c r="Z76" t="s">
         <v>199</v>
@@ -23169,7 +23803,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="Z77" t="s">
         <v>486</v>
@@ -23177,7 +23811,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Z78" t="s">
         <v>519</v>
@@ -23185,7 +23819,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>449</v>
+        <v>287</v>
       </c>
       <c r="Z79" t="s">
         <v>144</v>
@@ -23193,7 +23827,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Z80" t="s">
         <v>145</v>
@@ -23201,7 +23835,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>271</v>
+        <v>449</v>
       </c>
       <c r="Z81" t="s">
         <v>146</v>
@@ -23209,7 +23843,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="Z82" t="s">
         <v>547</v>
@@ -23217,7 +23851,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z83" t="s">
         <v>147</v>
@@ -23225,7 +23859,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Z84" t="s">
         <v>148</v>
@@ -23233,7 +23867,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>581</v>
+        <v>288</v>
       </c>
       <c r="Z85" t="s">
         <v>200</v>
@@ -23241,7 +23875,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z86" t="s">
         <v>536</v>
@@ -23249,7 +23883,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>289</v>
+        <v>581</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -23257,7 +23891,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z88" t="s">
         <v>485</v>
@@ -23265,7 +23899,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Z89" t="s">
         <v>202</v>
@@ -23273,7 +23907,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="Z90" t="s">
         <v>203</v>
@@ -23281,7 +23915,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="Z91" t="s">
         <v>216</v>
@@ -23289,7 +23923,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Z92" t="s">
         <v>149</v>
@@ -23297,7 +23931,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Z93" t="s">
         <v>204</v>
@@ -23305,7 +23939,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="Z94" t="s">
         <v>462</v>
@@ -23313,18 +23947,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="Z95" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>278</v>
+      </c>
       <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>279</v>
+      </c>
       <c r="Z97" t="s">
         <v>206</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,13 +43,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17149" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17700" uniqueCount="597">
   <si>
     <t>description</t>
   </si>
@@ -2035,13 +2035,16 @@
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="536" x14ac:knownFonts="1">
+  <fonts count="552" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5430,8 +5433,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="913">
+  <fills count="940">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10601,8 +10705,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="939">
+  <borders count="971">
     <border>
       <left/>
       <right/>
@@ -20078,6 +20335,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20085,7 +20668,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="562">
+  <cellXfs count="578">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21743,52 +22326,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="885" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="888" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="888" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="521" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="891" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="891" fontId="522" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="894" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="894" fontId="523" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="897" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="897" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="525" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="900" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="900" fontId="526" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="903" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="930" fillId="903" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="894" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="894" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="906" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="906" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="906" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="906" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="533" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="897" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="534" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="912" fontId="535" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="915" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="918" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="924" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="930" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="921" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22201,7 +22832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22286,24 +22917,21 @@
         <v>398</v>
       </c>
       <c r="Y1" t="s">
-        <v>591</v>
+        <v>55</v>
       </c>
       <c r="Z1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" t="s">
-        <v>58</v>
+        <v>446</v>
       </c>
       <c r="AD1" t="s">
-        <v>446</v>
-      </c>
-      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -22381,24 +23009,21 @@
         <v>408</v>
       </c>
       <c r="Y2" t="s">
-        <v>593</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="AA2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>184</v>
+        <v>463</v>
       </c>
       <c r="AD2" t="s">
-        <v>463</v>
-      </c>
-      <c r="AE2" t="s">
         <v>542</v>
       </c>
     </row>
@@ -22469,22 +23094,22 @@
       <c r="X3" t="s">
         <v>409</v>
       </c>
+      <c r="Y3" t="s">
+        <v>99</v>
+      </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="AA3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB3" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
       <c r="AC3" t="s">
-        <v>365</v>
+        <v>185</v>
       </c>
       <c r="AD3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -22552,22 +23177,22 @@
       <c r="X4" t="s">
         <v>410</v>
       </c>
+      <c r="Y4" t="s">
+        <v>355</v>
+      </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>174</v>
       </c>
       <c r="AA4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AB4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC4" t="s">
-        <v>185</v>
+        <v>464</v>
       </c>
       <c r="AD4" t="s">
-        <v>464</v>
-      </c>
-      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -22626,22 +23251,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
+      <c r="Y5" t="s">
+        <v>356</v>
+      </c>
       <c r="Z5" t="s">
-        <v>356</v>
+        <v>175</v>
       </c>
       <c r="AA5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC5" t="s">
-        <v>186</v>
+        <v>465</v>
       </c>
       <c r="AD5" t="s">
-        <v>465</v>
-      </c>
-      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -22694,22 +23319,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
+      <c r="Y6" t="s">
+        <v>100</v>
+      </c>
       <c r="Z6" t="s">
-        <v>100</v>
+        <v>477</v>
       </c>
       <c r="AA6" t="s">
-        <v>477</v>
+        <v>181</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC6" t="s">
-        <v>187</v>
+        <v>466</v>
       </c>
       <c r="AD6" t="s">
-        <v>466</v>
-      </c>
-      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -22756,22 +23381,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
       <c r="Z7" t="s">
-        <v>101</v>
+        <v>478</v>
       </c>
       <c r="AA7" t="s">
-        <v>478</v>
+        <v>182</v>
       </c>
       <c r="AB7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AC7" t="s">
-        <v>188</v>
+        <v>467</v>
       </c>
       <c r="AD7" t="s">
-        <v>467</v>
-      </c>
-      <c r="AE7" t="s">
         <v>585</v>
       </c>
     </row>
@@ -22812,22 +23437,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="AA8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AB8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AC8" t="s">
-        <v>189</v>
+        <v>468</v>
       </c>
       <c r="AD8" t="s">
-        <v>468</v>
-      </c>
-      <c r="AE8" t="s">
         <v>586</v>
       </c>
     </row>
@@ -22868,13 +23493,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>587</v>
       </c>
     </row>
@@ -22909,13 +23534,13 @@
       <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -22947,13 +23572,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -22985,13 +23610,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -23020,13 +23645,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>526</v>
       </c>
     </row>
@@ -23055,13 +23680,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>543</v>
       </c>
     </row>
@@ -23087,13 +23712,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>544</v>
       </c>
     </row>
@@ -23111,7 +23736,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>596</v>
       </c>
       <c r="Q16" t="s">
         <v>552</v>
@@ -23119,13 +23744,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>548</v>
       </c>
     </row>
@@ -23143,15 +23768,15 @@
         <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
         <v>553</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>513</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>549</v>
       </c>
     </row>
@@ -23168,10 +23793,13 @@
       <c r="K18" t="s">
         <v>505</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>527</v>
       </c>
     </row>
@@ -23188,10 +23816,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>545</v>
       </c>
     </row>
@@ -23208,10 +23836,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>546</v>
       </c>
     </row>
@@ -23228,10 +23856,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>550</v>
       </c>
     </row>
@@ -23248,10 +23876,10 @@
       <c r="K22" t="s">
         <v>522</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>534</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -23268,10 +23896,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>588</v>
       </c>
     </row>
@@ -23288,16 +23916,16 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>591</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>64</v>
@@ -23308,16 +23936,16 @@
       <c r="K25" t="s">
         <v>575</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>481</v>
@@ -23328,16 +23956,16 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>226</v>
@@ -23348,16 +23976,16 @@
       <c r="K27" t="s">
         <v>472</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>227</v>
@@ -23368,13 +23996,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>446</v>
       </c>
       <c r="E29" t="s">
         <v>520</v>
@@ -23385,13 +24013,13 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>446</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
         <v>521</v>
@@ -23399,21 +24027,18 @@
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
       <c r="E31" t="s">
         <v>448</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -23424,7 +24049,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -23435,7 +24060,7 @@
       <c r="G33" t="s">
         <v>559</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -23446,7 +24071,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -23457,7 +24082,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -23468,7 +24093,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -23479,7 +24104,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -23490,7 +24115,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>461</v>
       </c>
     </row>
@@ -23501,7 +24126,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>579</v>
       </c>
     </row>
@@ -23509,7 +24134,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>394</v>
       </c>
     </row>
@@ -23517,7 +24142,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -23525,7 +24150,7 @@
       <c r="G42" t="s">
         <v>594</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -23533,7 +24158,7 @@
       <c r="G43" t="s">
         <v>290</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -23541,7 +24166,7 @@
       <c r="G44" t="s">
         <v>301</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -23549,7 +24174,7 @@
       <c r="G45" t="s">
         <v>302</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23557,7 +24182,7 @@
       <c r="G46" t="s">
         <v>344</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -23565,7 +24190,7 @@
       <c r="G47" t="s">
         <v>343</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>474</v>
       </c>
     </row>
@@ -23573,7 +24198,7 @@
       <c r="G48" t="s">
         <v>212</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -23581,7 +24206,7 @@
       <c r="G49" t="s">
         <v>321</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -23589,7 +24214,7 @@
       <c r="G50" t="s">
         <v>340</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>584</v>
       </c>
     </row>
@@ -23597,7 +24222,7 @@
       <c r="G51" t="s">
         <v>369</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -23605,7 +24230,7 @@
       <c r="G52" t="s">
         <v>303</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -23613,7 +24238,7 @@
       <c r="G53" t="s">
         <v>357</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -23621,7 +24246,7 @@
       <c r="G54" t="s">
         <v>332</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>535</v>
       </c>
     </row>
@@ -23629,7 +24254,7 @@
       <c r="G55" t="s">
         <v>269</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>515</v>
       </c>
     </row>
@@ -23637,7 +24262,7 @@
       <c r="G56" t="s">
         <v>293</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -23645,7 +24270,7 @@
       <c r="G57" t="s">
         <v>294</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -23653,7 +24278,7 @@
       <c r="G58" t="s">
         <v>595</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>508</v>
       </c>
     </row>
@@ -23661,7 +24286,7 @@
       <c r="G59" t="s">
         <v>295</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -23669,7 +24294,7 @@
       <c r="G60" t="s">
         <v>304</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -23677,7 +24302,7 @@
       <c r="G61" t="s">
         <v>313</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -23685,7 +24310,7 @@
       <c r="G62" t="s">
         <v>338</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23693,7 +24318,7 @@
       <c r="G63" t="s">
         <v>310</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -23701,7 +24326,7 @@
       <c r="G64" t="s">
         <v>311</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -23709,7 +24334,7 @@
       <c r="G65" t="s">
         <v>370</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -23717,7 +24342,7 @@
       <c r="G66" t="s">
         <v>371</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>470</v>
       </c>
     </row>
@@ -23725,7 +24350,7 @@
       <c r="G67" t="s">
         <v>346</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>525</v>
       </c>
     </row>
@@ -23733,7 +24358,7 @@
       <c r="G68" t="s">
         <v>314</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -23741,7 +24366,7 @@
       <c r="G69" t="s">
         <v>270</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -23749,7 +24374,7 @@
       <c r="G70" t="s">
         <v>580</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>475</v>
       </c>
     </row>
@@ -23757,7 +24382,7 @@
       <c r="G71" t="s">
         <v>315</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -23765,7 +24390,7 @@
       <c r="G72" t="s">
         <v>434</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -23773,7 +24398,7 @@
       <c r="G73" t="s">
         <v>305</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -23781,7 +24406,7 @@
       <c r="G74" t="s">
         <v>435</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -23789,7 +24414,7 @@
       <c r="G75" t="s">
         <v>263</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -23797,7 +24422,7 @@
       <c r="G76" t="s">
         <v>560</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -23805,7 +24430,7 @@
       <c r="G77" t="s">
         <v>345</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23813,7 +24438,7 @@
       <c r="G78" t="s">
         <v>281</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>519</v>
       </c>
     </row>
@@ -23821,7 +24446,7 @@
       <c r="G79" t="s">
         <v>287</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -23829,7 +24454,7 @@
       <c r="G80" t="s">
         <v>292</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -23837,7 +24462,7 @@
       <c r="G81" t="s">
         <v>449</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -23845,7 +24470,7 @@
       <c r="G82" t="s">
         <v>333</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>547</v>
       </c>
     </row>
@@ -23853,7 +24478,7 @@
       <c r="G83" t="s">
         <v>271</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -23861,7 +24486,7 @@
       <c r="G84" t="s">
         <v>282</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -23869,7 +24494,7 @@
       <c r="G85" t="s">
         <v>288</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -23877,7 +24502,7 @@
       <c r="G86" t="s">
         <v>277</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>536</v>
       </c>
     </row>
@@ -23885,7 +24510,7 @@
       <c r="G87" t="s">
         <v>581</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -23893,7 +24518,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>485</v>
       </c>
     </row>
@@ -23901,7 +24526,7 @@
       <c r="G89" t="s">
         <v>289</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -23909,7 +24534,7 @@
       <c r="G90" t="s">
         <v>273</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -23917,7 +24542,7 @@
       <c r="G91" t="s">
         <v>274</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -23925,7 +24550,7 @@
       <c r="G92" t="s">
         <v>306</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -23933,7 +24558,7 @@
       <c r="G93" t="s">
         <v>312</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -23941,7 +24566,7 @@
       <c r="G94" t="s">
         <v>296</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>462</v>
       </c>
     </row>
@@ -23949,7 +24574,7 @@
       <c r="G95" t="s">
         <v>341</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>469</v>
       </c>
     </row>
@@ -23957,7 +24582,7 @@
       <c r="G96" t="s">
         <v>278</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
@@ -23965,167 +24590,167 @@
       <c r="G97" t="s">
         <v>279</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17700" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20471" uniqueCount="601">
   <si>
     <t>description</t>
   </si>
@@ -2038,13 +2038,25 @@
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
   </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="552" x14ac:knownFonts="1">
+  <fonts count="632" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5534,8 +5546,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="940">
+  <fills count="1075">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10858,8 +11375,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="971">
+  <borders count="1131">
     <border>
       <left/>
       <right/>
@@ -20661,6 +21943,1636 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20668,7 +23580,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="578">
+  <cellXfs count="658">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22374,52 +25286,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="912" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="915" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="915" fontId="536" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="537" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="918" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="918" fontId="538" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="921" fontId="539" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="924" borderId="958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="958" fillId="924" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="541" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="927" fontId="542" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="930" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="930" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="921" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="921" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="933" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="933" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="550" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="939" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="939" fontId="551" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="942" fontId="552" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="553" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="554" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="986" fillId="948" fontId="555" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="951" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="557" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="954" fontId="558" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="559" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="957" fontId="560" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="948" fontId="561" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="960" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="960" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="951" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="951" fontId="566" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="966" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="969" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="569" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1014" fillId="972" fontId="570" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="975" fontId="571" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="978" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="573" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="981" fontId="574" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="984" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="975" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="987" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="987" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="978" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="581" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="978" fontId="582" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="993" fontId="583" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1042" fillId="996" fontId="584" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="585" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="999" fontId="586" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1002" fontId="587" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1005" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="589" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1008" fontId="590" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="591" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1011" fontId="592" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1002" fontId="593" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1014" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1014" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1005" fontId="596" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="597" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1005" fontId="598" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1020" fontId="599" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1023" fontId="600" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="601" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1026" fontId="602" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1029" fontId="603" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1032" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="605" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1035" fontId="606" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="607" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1038" fontId="608" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1029" fontId="609" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1098" fillId="1041" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1098" fillId="1041" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1032" fontId="612" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="613" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1032" fontId="614" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1050" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1053" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="1056" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1059" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1065" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1056" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1068" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1068" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22832,7 +25984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23917,7 +27069,7 @@
         <v>393</v>
       </c>
       <c r="Y24" t="s">
-        <v>112</v>
+        <v>597</v>
       </c>
       <c r="AD24" t="s">
         <v>589</v>
@@ -23937,7 +27089,7 @@
         <v>575</v>
       </c>
       <c r="Y25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s">
         <v>590</v>
@@ -23957,7 +27109,7 @@
         <v>86</v>
       </c>
       <c r="Y26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD26" t="s">
         <v>237</v>
@@ -23977,7 +27129,7 @@
         <v>472</v>
       </c>
       <c r="Y27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD27" t="s">
         <v>238</v>
@@ -23997,7 +27149,7 @@
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -24014,7 +27166,7 @@
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30">
@@ -24028,7 +27180,7 @@
         <v>217</v>
       </c>
       <c r="Y30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -24039,7 +27191,7 @@
         <v>276</v>
       </c>
       <c r="Y31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -24050,7 +27202,7 @@
         <v>286</v>
       </c>
       <c r="Y32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -24061,7 +27213,7 @@
         <v>559</v>
       </c>
       <c r="Y33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -24072,7 +27224,7 @@
         <v>261</v>
       </c>
       <c r="Y34" t="s">
-        <v>121</v>
+        <v>598</v>
       </c>
     </row>
     <row r="35">
@@ -24083,7 +27235,7 @@
         <v>331</v>
       </c>
       <c r="Y35" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -24094,7 +27246,7 @@
         <v>308</v>
       </c>
       <c r="Y36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -24105,7 +27257,7 @@
         <v>262</v>
       </c>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38">
@@ -24116,7 +27268,7 @@
         <v>309</v>
       </c>
       <c r="Y38" t="s">
-        <v>461</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -24127,7 +27279,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>579</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
@@ -24135,7 +27287,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>394</v>
+        <v>461</v>
       </c>
     </row>
     <row r="41">
@@ -24143,7 +27295,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>123</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42">
@@ -24151,7 +27303,7 @@
         <v>594</v>
       </c>
       <c r="Y42" t="s">
-        <v>124</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
@@ -24159,7 +27311,7 @@
         <v>290</v>
       </c>
       <c r="Y43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -24167,7 +27319,7 @@
         <v>301</v>
       </c>
       <c r="Y44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -24175,7 +27327,7 @@
         <v>302</v>
       </c>
       <c r="Y45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -24183,7 +27335,7 @@
         <v>344</v>
       </c>
       <c r="Y46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -24191,7 +27343,7 @@
         <v>343</v>
       </c>
       <c r="Y47" t="s">
-        <v>474</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -24199,7 +27351,7 @@
         <v>212</v>
       </c>
       <c r="Y48" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -24207,7 +27359,7 @@
         <v>321</v>
       </c>
       <c r="Y49" t="s">
-        <v>78</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50">
@@ -24215,7 +27367,7 @@
         <v>340</v>
       </c>
       <c r="Y50" t="s">
-        <v>584</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
@@ -24223,7 +27375,7 @@
         <v>369</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -24231,7 +27383,7 @@
         <v>303</v>
       </c>
       <c r="Y52" t="s">
-        <v>130</v>
+        <v>584</v>
       </c>
     </row>
     <row r="53">
@@ -24239,7 +27391,7 @@
         <v>357</v>
       </c>
       <c r="Y53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
@@ -24247,7 +27399,7 @@
         <v>332</v>
       </c>
       <c r="Y54" t="s">
-        <v>535</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -24255,7 +27407,7 @@
         <v>269</v>
       </c>
       <c r="Y55" t="s">
-        <v>515</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56">
@@ -24263,7 +27415,7 @@
         <v>293</v>
       </c>
       <c r="Y56" t="s">
-        <v>132</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57">
@@ -24271,7 +27423,7 @@
         <v>294</v>
       </c>
       <c r="Y57" t="s">
-        <v>347</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58">
@@ -24279,7 +27431,7 @@
         <v>595</v>
       </c>
       <c r="Y58" t="s">
-        <v>508</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
@@ -24287,7 +27439,7 @@
         <v>295</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
@@ -24295,7 +27447,7 @@
         <v>304</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>508</v>
       </c>
     </row>
     <row r="61">
@@ -24303,7 +27455,7 @@
         <v>313</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -24311,7 +27463,7 @@
         <v>338</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -24319,7 +27471,7 @@
         <v>310</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -24327,7 +27479,7 @@
         <v>311</v>
       </c>
       <c r="Y64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -24335,7 +27487,7 @@
         <v>370</v>
       </c>
       <c r="Y65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
@@ -24343,7 +27495,7 @@
         <v>371</v>
       </c>
       <c r="Y66" t="s">
-        <v>470</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
@@ -24351,7 +27503,7 @@
         <v>346</v>
       </c>
       <c r="Y67" t="s">
-        <v>525</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
@@ -24359,7 +27511,7 @@
         <v>314</v>
       </c>
       <c r="Y68" t="s">
-        <v>215</v>
+        <v>470</v>
       </c>
     </row>
     <row r="69">
@@ -24367,7 +27519,7 @@
         <v>270</v>
       </c>
       <c r="Y69" t="s">
-        <v>390</v>
+        <v>525</v>
       </c>
     </row>
     <row r="70">
@@ -24375,7 +27527,7 @@
         <v>580</v>
       </c>
       <c r="Y70" t="s">
-        <v>475</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
@@ -24383,7 +27535,7 @@
         <v>315</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72">
@@ -24391,7 +27543,7 @@
         <v>434</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73">
@@ -24399,7 +27551,7 @@
         <v>305</v>
       </c>
       <c r="Y73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -24407,7 +27559,7 @@
         <v>435</v>
       </c>
       <c r="Y74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
@@ -24415,7 +27567,7 @@
         <v>263</v>
       </c>
       <c r="Y75" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
@@ -24423,7 +27575,7 @@
         <v>560</v>
       </c>
       <c r="Y76" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77">
@@ -24431,7 +27583,7 @@
         <v>345</v>
       </c>
       <c r="Y77" t="s">
-        <v>486</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -24439,7 +27591,7 @@
         <v>281</v>
       </c>
       <c r="Y78" t="s">
-        <v>519</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
@@ -24447,7 +27599,7 @@
         <v>287</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80">
@@ -24455,7 +27607,7 @@
         <v>292</v>
       </c>
       <c r="Y80" t="s">
-        <v>145</v>
+        <v>519</v>
       </c>
     </row>
     <row r="81">
@@ -24463,7 +27615,7 @@
         <v>449</v>
       </c>
       <c r="Y81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
@@ -24471,7 +27623,7 @@
         <v>333</v>
       </c>
       <c r="Y82" t="s">
-        <v>547</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
@@ -24479,7 +27631,7 @@
         <v>271</v>
       </c>
       <c r="Y83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
@@ -24487,7 +27639,7 @@
         <v>282</v>
       </c>
       <c r="Y84" t="s">
-        <v>148</v>
+        <v>547</v>
       </c>
     </row>
     <row r="85">
@@ -24495,7 +27647,7 @@
         <v>288</v>
       </c>
       <c r="Y85" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -24503,7 +27655,7 @@
         <v>277</v>
       </c>
       <c r="Y86" t="s">
-        <v>536</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87">
@@ -24511,7 +27663,7 @@
         <v>581</v>
       </c>
       <c r="Y87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -24519,7 +27671,7 @@
         <v>272</v>
       </c>
       <c r="Y88" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
     </row>
     <row r="89">
@@ -24527,7 +27679,7 @@
         <v>289</v>
       </c>
       <c r="Y89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -24535,7 +27687,7 @@
         <v>273</v>
       </c>
       <c r="Y90" t="s">
-        <v>203</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91">
@@ -24543,7 +27695,7 @@
         <v>274</v>
       </c>
       <c r="Y91" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
@@ -24551,7 +27703,7 @@
         <v>306</v>
       </c>
       <c r="Y92" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
@@ -24559,7 +27711,7 @@
         <v>312</v>
       </c>
       <c r="Y93" t="s">
-        <v>204</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94">
@@ -24567,7 +27719,7 @@
         <v>296</v>
       </c>
       <c r="Y94" t="s">
-        <v>462</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
@@ -24575,7 +27727,7 @@
         <v>341</v>
       </c>
       <c r="Y95" t="s">
-        <v>469</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
@@ -24583,7 +27735,7 @@
         <v>278</v>
       </c>
       <c r="Y96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
@@ -24591,166 +27743,186 @@
         <v>279</v>
       </c>
       <c r="Y97" t="s">
-        <v>206</v>
+        <v>462</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>207</v>
+        <v>469</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>558</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>561</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>384</v>
+        <v>561</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>562</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>476</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>166</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>47</v>
+        <v>599</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20471" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21027" uniqueCount="603">
   <si>
     <t>description</t>
   </si>
@@ -2050,13 +2050,19 @@
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="632" x14ac:knownFonts="1">
+  <fonts count="648" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6051,8 +6057,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1075">
+  <fills count="1102">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12140,8 +12247,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1131">
+  <borders count="1163">
     <border>
       <left/>
       <right/>
@@ -23573,6 +23833,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23580,7 +24166,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="658">
+  <cellXfs count="674">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25526,52 +26112,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="615" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="1050" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1050" fontId="616" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="617" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="618" fillId="1053" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1053" fontId="618" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="1056" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1056" fontId="619" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="620" fillId="1059" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1059" fontId="620" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="621" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="621" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="622" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1062" fontId="622" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="623" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="623" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="624" fillId="1065" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1065" fontId="624" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="625" fillId="1056" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1126" fillId="1056" fontId="625" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="626" fillId="1068" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1068" fontId="626" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="1068" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1068" fontId="627" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="628" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1059" fontId="628" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="629" fillId="1071" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="629" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="630" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1059" fontId="630" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="631" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1074" fontId="631" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="1077" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="1080" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1083" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="1086" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="1092" borderId="1154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1083" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="1095" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="1095" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1101" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26365,7 +26999,7 @@
         <v>471</v>
       </c>
       <c r="G5" t="s">
-        <v>337</v>
+        <v>601</v>
       </c>
       <c r="H5" t="s">
         <v>504</v>
@@ -26439,7 +27073,7 @@
         <v>554</v>
       </c>
       <c r="G6" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="H6" t="s">
         <v>480</v>
@@ -26501,7 +27135,7 @@
         <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="H7" t="s">
         <v>479</v>
@@ -26563,7 +27197,7 @@
         <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H8" t="s">
         <v>329</v>
@@ -26619,7 +27253,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="H9" t="s">
         <v>330</v>
@@ -26663,7 +27297,7 @@
         <v>316</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="H10" t="s">
         <v>484</v>
@@ -26704,7 +27338,7 @@
         <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="H11" t="s">
         <v>323</v>
@@ -26742,7 +27376,7 @@
         <v>320</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="H12" t="s">
         <v>324</v>
@@ -26780,7 +27414,7 @@
         <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="H13" t="s">
         <v>325</v>
@@ -26815,7 +27449,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
         <v>326</v>
@@ -26850,7 +27484,7 @@
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K15" t="s">
         <v>557</v>
@@ -26882,7 +27516,7 @@
         <v>386</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="K16" t="s">
         <v>82</v>
@@ -26914,7 +27548,7 @@
         <v>387</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="K17" t="s">
         <v>83</v>
@@ -26940,7 +27574,7 @@
         <v>447</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
         <v>505</v>
@@ -26963,7 +27597,7 @@
         <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
         <v>84</v>
@@ -26983,7 +27617,7 @@
         <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -27003,7 +27637,7 @@
         <v>257</v>
       </c>
       <c r="G21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K21" t="s">
         <v>381</v>
@@ -27023,7 +27657,7 @@
         <v>592</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K22" t="s">
         <v>522</v>
@@ -27043,7 +27677,7 @@
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -27063,7 +27697,7 @@
         <v>322</v>
       </c>
       <c r="G24" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="K24" t="s">
         <v>393</v>
@@ -27083,7 +27717,7 @@
         <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="K25" t="s">
         <v>575</v>
@@ -27103,7 +27737,7 @@
         <v>481</v>
       </c>
       <c r="G26" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
         <v>86</v>
@@ -27123,7 +27757,7 @@
         <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
         <v>472</v>
@@ -27143,7 +27777,7 @@
         <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
@@ -27160,7 +27794,7 @@
         <v>520</v>
       </c>
       <c r="G29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -27177,7 +27811,7 @@
         <v>521</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s">
         <v>116</v>
@@ -27188,7 +27822,7 @@
         <v>448</v>
       </c>
       <c r="G31" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="Y31" t="s">
         <v>117</v>
@@ -27199,7 +27833,7 @@
         <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Y32" t="s">
         <v>118</v>
@@ -27210,7 +27844,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>559</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s">
         <v>119</v>
@@ -27221,7 +27855,7 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>559</v>
       </c>
       <c r="Y34" t="s">
         <v>598</v>
@@ -27232,7 +27866,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="Y35" t="s">
         <v>120</v>
@@ -27243,7 +27877,7 @@
         <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="Y36" t="s">
         <v>121</v>
@@ -27254,7 +27888,7 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="Y37" t="s">
         <v>211</v>
@@ -27265,7 +27899,7 @@
         <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="Y38" t="s">
         <v>122</v>
@@ -27276,7 +27910,7 @@
         <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="Y39" t="s">
         <v>339</v>
@@ -27284,7 +27918,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="Y40" t="s">
         <v>461</v>
@@ -27292,7 +27926,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s">
         <v>579</v>
@@ -27300,7 +27934,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>594</v>
+        <v>213</v>
       </c>
       <c r="Y42" t="s">
         <v>394</v>
@@ -27308,7 +27942,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>290</v>
+        <v>594</v>
       </c>
       <c r="Y43" t="s">
         <v>123</v>
@@ -27316,7 +27950,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Y44" t="s">
         <v>124</v>
@@ -27324,7 +27958,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y45" t="s">
         <v>125</v>
@@ -27332,7 +27966,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Y46" t="s">
         <v>126</v>
@@ -27340,7 +27974,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y47" t="s">
         <v>127</v>
@@ -27348,7 +27982,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Y48" t="s">
         <v>128</v>
@@ -27356,7 +27990,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Y49" t="s">
         <v>474</v>
@@ -27364,7 +27998,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Y50" t="s">
         <v>214</v>
@@ -27372,7 +28006,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Y51" t="s">
         <v>78</v>
@@ -27380,7 +28014,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="Y52" t="s">
         <v>584</v>
@@ -27388,7 +28022,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="Y53" t="s">
         <v>129</v>
@@ -27396,7 +28030,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Y54" t="s">
         <v>130</v>
@@ -27404,7 +28038,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Y55" t="s">
         <v>131</v>
@@ -27412,7 +28046,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Y56" t="s">
         <v>535</v>
@@ -27420,7 +28054,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y57" t="s">
         <v>515</v>
@@ -27428,7 +28062,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>595</v>
+        <v>294</v>
       </c>
       <c r="Y58" t="s">
         <v>132</v>
@@ -27436,7 +28070,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>295</v>
+        <v>595</v>
       </c>
       <c r="Y59" t="s">
         <v>347</v>
@@ -27444,7 +28078,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Y60" t="s">
         <v>508</v>
@@ -27452,7 +28086,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="Y61" t="s">
         <v>133</v>
@@ -27460,7 +28094,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="Y62" t="s">
         <v>134</v>
@@ -27468,7 +28102,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="Y63" t="s">
         <v>135</v>
@@ -27476,7 +28110,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y64" t="s">
         <v>136</v>
@@ -27484,7 +28118,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="Y65" t="s">
         <v>137</v>
@@ -27492,7 +28126,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Y66" t="s">
         <v>138</v>
@@ -27500,7 +28134,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="Y67" t="s">
         <v>139</v>
@@ -27508,7 +28142,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="Y68" t="s">
         <v>470</v>
@@ -27516,7 +28150,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="Y69" t="s">
         <v>525</v>
@@ -27524,7 +28158,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>580</v>
+        <v>270</v>
       </c>
       <c r="Y70" t="s">
         <v>215</v>
@@ -27532,7 +28166,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>315</v>
+        <v>580</v>
       </c>
       <c r="Y71" t="s">
         <v>390</v>
@@ -27540,7 +28174,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>434</v>
+        <v>315</v>
       </c>
       <c r="Y72" t="s">
         <v>475</v>
@@ -27548,7 +28182,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>305</v>
+        <v>434</v>
       </c>
       <c r="Y73" t="s">
         <v>140</v>
@@ -27556,7 +28190,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>435</v>
+        <v>305</v>
       </c>
       <c r="Y74" t="s">
         <v>141</v>
@@ -27564,7 +28198,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>263</v>
+        <v>435</v>
       </c>
       <c r="Y75" t="s">
         <v>142</v>
@@ -27572,7 +28206,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>560</v>
+        <v>263</v>
       </c>
       <c r="Y76" t="s">
         <v>143</v>
@@ -27580,7 +28214,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>345</v>
+        <v>560</v>
       </c>
       <c r="Y77" t="s">
         <v>198</v>
@@ -27588,7 +28222,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="Y78" t="s">
         <v>199</v>
@@ -27596,7 +28230,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Y79" t="s">
         <v>486</v>
@@ -27604,7 +28238,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Y80" t="s">
         <v>519</v>
@@ -27612,7 +28246,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>449</v>
+        <v>292</v>
       </c>
       <c r="Y81" t="s">
         <v>144</v>
@@ -27620,7 +28254,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>333</v>
+        <v>449</v>
       </c>
       <c r="Y82" t="s">
         <v>145</v>
@@ -27628,7 +28262,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="Y83" t="s">
         <v>146</v>
@@ -27636,7 +28270,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="Y84" t="s">
         <v>547</v>
@@ -27644,7 +28278,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Y85" t="s">
         <v>147</v>
@@ -27652,7 +28286,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Y86" t="s">
         <v>148</v>
@@ -27660,7 +28294,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>581</v>
+        <v>277</v>
       </c>
       <c r="Y87" t="s">
         <v>200</v>
@@ -27668,7 +28302,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
+        <v>581</v>
       </c>
       <c r="Y88" t="s">
         <v>536</v>
@@ -27676,7 +28310,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y89" t="s">
         <v>201</v>
@@ -27684,7 +28318,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y90" t="s">
         <v>485</v>
@@ -27692,7 +28326,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y91" t="s">
         <v>202</v>
@@ -27700,7 +28334,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Y92" t="s">
         <v>203</v>
@@ -27708,15 +28342,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y93" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Y94" t="s">
         <v>216</v>
@@ -27724,7 +28358,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y95" t="s">
         <v>149</v>
@@ -27732,7 +28366,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y96" t="s">
         <v>204</v>
@@ -27740,13 +28374,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y97" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>279</v>
+      </c>
       <c r="Y98" t="s">
         <v>469</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -44,7 +44,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21027" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21584" uniqueCount="604">
   <si>
     <t>description</t>
   </si>
@@ -2056,13 +2056,16 @@
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="648" x14ac:knownFonts="1">
+  <fonts count="664" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6158,8 +6161,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1102">
+  <fills count="1129">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12400,8 +12504,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1163">
+  <borders count="1195">
     <border>
       <left/>
       <right/>
@@ -24159,6 +24416,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -24166,7 +24749,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="674">
+  <cellXfs count="690">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26160,52 +26743,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1074" fontId="631" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="632" fillId="1077" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1077" fontId="632" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="633" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="633" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="634" fillId="1080" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1080" fontId="634" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="1083" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1083" fontId="635" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="636" fillId="1086" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1086" fontId="636" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="637" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="638" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1089" fontId="638" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="639" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="1092" borderId="1154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1154" fillId="1092" fontId="640" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1083" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1083" fontId="641" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="1095" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1095" fontId="642" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="1095" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1095" fontId="643" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1086" fontId="644" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="645" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="1086" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1086" fontId="646" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="1101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1101" fontId="647" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1104" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1107" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="1110" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1113" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1116" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1119" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1110" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1122" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="1122" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1128" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -26618,7 +27249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -28353,7 +28984,7 @@
         <v>312</v>
       </c>
       <c r="Y94" t="s">
-        <v>216</v>
+        <v>603</v>
       </c>
     </row>
     <row r="95">
@@ -28361,7 +28992,7 @@
         <v>296</v>
       </c>
       <c r="Y95" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96">
@@ -28369,7 +29000,7 @@
         <v>341</v>
       </c>
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97">
@@ -28377,7 +29008,7 @@
         <v>278</v>
       </c>
       <c r="Y97" t="s">
-        <v>462</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
@@ -28385,181 +29016,186 @@
         <v>279</v>
       </c>
       <c r="Y98" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>558</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>561</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>562</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>384</v>
+        <v>562</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>476</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>476</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>599</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>599</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -20,41 +20,42 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21584" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22145" uniqueCount="610">
   <si>
     <t>description</t>
   </si>
@@ -2059,13 +2060,31 @@
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="664" x14ac:knownFonts="1">
+  <fonts count="680" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6262,8 +6281,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1129">
+  <fills count="1156">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12657,8 +12777,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1195">
+  <borders count="1227">
     <border>
       <left/>
       <right/>
@@ -24742,6 +25015,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -24749,7 +25348,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="690">
+  <cellXfs count="706">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26791,52 +27390,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1101" fontId="647" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="1104" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1104" fontId="648" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="649" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="1107" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1107" fontId="650" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="1110" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1110" fontId="651" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="652" fillId="1113" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1182" fillId="1113" fontId="652" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="653" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="653" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="654" fillId="1116" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1116" fontId="654" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="655" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="655" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="656" fillId="1119" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1119" fontId="656" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="657" fillId="1110" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1110" fontId="657" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="1122" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1122" fontId="658" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="1122" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1122" fontId="659" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="660" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1113" fontId="660" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="661" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1125" fontId="661" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="662" fillId="1113" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1113" fontId="662" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="663" fillId="1128" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1128" fontId="663" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="1131" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="1134" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="1137" borderId="1210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="1140" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="1146" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1137" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="1149" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="1149" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1140" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1140" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1155" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27249,7 +27896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27274,81 +27921,84 @@
         <v>537</v>
       </c>
       <c r="E1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>348</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>334</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>563</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>528</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>240</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>397</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>444</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>445</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>358</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>398</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>446</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -27366,81 +28016,84 @@
         <v>538</v>
       </c>
       <c r="E2" t="s">
+        <v>605</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>482</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>80</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>518</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>316</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>385</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>450</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>564</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>531</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>451</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>452</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>254</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>218</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>399</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>456</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>457</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>382</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>408</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>463</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>542</v>
       </c>
     </row>
@@ -27457,76 +28110,76 @@
       <c r="D3" t="s">
         <v>574</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>506</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>366</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>89</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>529</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>350</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>342</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>335</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>565</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>532</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>453</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>241</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>219</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>400</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>458</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>383</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>409</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -27540,82 +28193,82 @@
       <c r="D4" t="s">
         <v>539</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>74</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>388</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>483</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>530</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>351</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>239</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>336</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>566</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>533</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>242</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>220</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>401</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>459</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>359</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>410</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>464</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>604</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
@@ -27623,73 +28276,73 @@
       <c r="D5" t="s">
         <v>540</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>507</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>471</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>601</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>504</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>578</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>352</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>512</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>576</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>243</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>221</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>402</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>460</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
-        <v>356</v>
-      </c>
       <c r="Z5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>465</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
@@ -27697,1505 +28350,1513 @@
       <c r="D6" t="s">
         <v>541</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>554</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>337</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>480</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>349</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>73</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>570</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>244</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>392</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>403</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>477</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>466</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>225</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>389</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>479</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>582</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>571</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>245</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>455</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>404</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>478</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>467</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>319</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>367</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>329</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>555</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>572</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>92</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>246</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>405</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>468</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>368</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>330</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>81</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>577</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>93</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>247</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>406</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>316</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>307</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>484</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>567</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>454</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>248</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>407</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" t="s">
+        <v>606</v>
+      </c>
+      <c r="H11" t="s">
         <v>353</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>323</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>556</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>523</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>568</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>94</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>320</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>275</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>324</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>391</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>583</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>569</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" t="s">
         <v>342</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>264</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>325</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>473</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>95</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>563</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>317</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>326</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>524</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>96</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>528</v>
-      </c>
-      <c r="E15" t="s">
+        <v>563</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>265</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>557</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>551</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" t="s">
+        <v>528</v>
+      </c>
+      <c r="F16" t="s">
         <v>386</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>266</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>82</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>596</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>552</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" t="s">
         <v>387</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>318</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>83</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>553</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>513</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
         <v>447</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>90</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>505</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>91</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>397</v>
-      </c>
-      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>297</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>444</v>
-      </c>
-      <c r="E21" t="s">
+        <v>397</v>
+      </c>
+      <c r="F21" t="s">
         <v>257</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>298</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>381</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>445</v>
-      </c>
-      <c r="E22" t="s">
+        <v>444</v>
+      </c>
+      <c r="F22" t="s">
         <v>592</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>299</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>522</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>534</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>358</v>
-      </c>
-      <c r="E23" t="s">
+        <v>445</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>300</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>398</v>
-      </c>
-      <c r="E24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" t="s">
         <v>322</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>291</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>393</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>597</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
+        <v>398</v>
+      </c>
+      <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>280</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>575</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>112</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
         <v>481</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>77</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>113</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
         <v>226</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>283</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>472</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>114</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
         <v>227</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>267</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>446</v>
-      </c>
-      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
         <v>520</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>284</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>446</v>
+      </c>
+      <c r="F30" t="s">
+        <v>521</v>
+      </c>
+      <c r="H30" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>228</v>
       </c>
-      <c r="E30" t="s">
-        <v>521</v>
-      </c>
-      <c r="G30" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>448</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>217</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>276</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>286</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>559</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>68</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>261</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>69</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>331</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>70</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>308</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>262</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>72</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>309</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>268</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="Y41" t="s">
-        <v>579</v>
+      <c r="Z41" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>594</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>290</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>301</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>302</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>344</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>343</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>321</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>340</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>369</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>303</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>357</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>332</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>269</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>293</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>294</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>595</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>295</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>304</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>313</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>338</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>310</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>311</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>370</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>371</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>346</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>314</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>270</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>580</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>315</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>434</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>305</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>435</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>263</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>560</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>345</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>281</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>287</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>292</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>449</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>333</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>271</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>282</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>288</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>277</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>581</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>272</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>289</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>273</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>274</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>306</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>312</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>296</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>341</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>278</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>279</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22145" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22706" uniqueCount="610">
   <si>
     <t>description</t>
   </si>
@@ -2084,7 +2084,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="680" x14ac:knownFonts="1">
+  <fonts count="696" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6382,8 +6382,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1156">
+  <fills count="1183">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12930,8 +13031,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1227">
+  <borders count="1259">
     <border>
       <left/>
       <right/>
@@ -25341,6 +25595,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -25348,7 +25928,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="706">
+  <cellXfs count="722">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27438,52 +28018,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1128" fontId="663" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="664" fillId="1131" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1131" fontId="664" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="665" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="665" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="666" fillId="1134" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1134" fontId="666" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="667" fillId="1137" borderId="1210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1210" fillId="1137" fontId="667" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="668" fillId="1140" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1140" fontId="668" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="669" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="669" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="670" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1143" fontId="670" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="671" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="671" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="672" fillId="1146" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1146" fontId="672" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="673" fillId="1137" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1137" fontId="673" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="674" fillId="1149" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1149" fontId="674" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="675" fillId="1149" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1149" fontId="675" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="1140" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1140" fontId="676" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="677" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1152" fontId="677" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="1140" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1140" fontId="678" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="679" fillId="1155" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1155" fontId="679" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1158" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1161" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1164" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1167" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1170" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1173" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1164" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1176" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1176" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="1167" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1182" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFC7A07-4EEF-E640-A8DB-48D402CFAED3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DB3670-5C16-4740-A803-3B6AC3DF6309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4560" windowWidth="40960" windowHeight="21040" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="57600" windowHeight="17760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2059,14 +2059,6 @@
     <t>[TEXT(${expected}) =&gt; text]</t>
   </si>
   <si>
-    <t>[CSV(${initial}) =&gt; 
- parse(header=true) 
- replaceColumnRegex(^([^"\].*[^"\]\)$,"$1",*)
- replaceColumnRegex("null",null,*) 
- text
-]</t>
-  </si>
-  <si>
     <t>clear(variables)</t>
   </si>
   <si>
@@ -2092,6 +2084,14 @@
   </si>
   <si>
     <t>2ND UNIT,AMORT-SERIES,ART DEPT,ASSET SALE / OTHER REVENUE,ATL TRAVEL &amp; LIVING,BOTTLE SHOW CREDIT,BTL TRAVEL &amp; LIVING,CAMERA,COSTUMES,DIRECTOR,EDITORIAL,EXTRAS,FACILITY/STAGE COSTS,GENERAL EXPENSE,GRIP/SET OPERATIONS,INSURANCE,LOCATION &amp; OFFICE EXPENSE,MAKEUP / HAIR,MUSIC,PACKAGE FEE,PIC VEHICLES/ANIMALS/HANDLERS,POST PRODUCTION FILM &amp; LAB,POST PRODUCTION SOUND,PRODUCER,PRODUCTION SOUND,PRODUCTION STAFF,PRODUCTION STOCK &amp; LAB,PROPS,PUBLICITY,RESIDUALS,SET CONSTRUCTION,SET DRESSING,SET LIGHTING,SPECIAL FX,STRIKE,TALENT,TESTS,TITLES,TRANSPORTATION,VISUAL EFFECTS,WRITERS</t>
+  </si>
+  <si>
+    <t>[CSV(${initial}) =&gt; 
+ parse(header=true,keepQuote=true) 
+ replaceColumnRegex(^([^"\].*[^"\]\)$,"$1",*)
+ replaceColumnRegex("null",null,*) 
+ text
+]</t>
   </si>
 </sst>
 </file>
@@ -2368,6 +2368,9 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2395,9 +2398,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3770,7 +3770,7 @@
         <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H18" t="s">
         <v>89</v>
@@ -3839,7 +3839,7 @@
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -4810,12 +4810,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="24" t="s">
         <v>11</v>
       </c>
@@ -4833,20 +4833,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -4856,10 +4856,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -16349,7 +16349,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="108" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16371,12 +16371,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="31" t="s">
         <v>11</v>
       </c>
@@ -16394,20 +16394,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -16417,10 +16417,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -16536,7 +16536,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -16549,7 +16549,7 @@
         <v>596</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -16588,7 +16588,7 @@
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="14" t="s">
@@ -16598,7 +16598,7 @@
         <v>315</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -16618,14 +16618,14 @@
       <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="40" t="s">
-        <v>610</v>
+      <c r="E10" s="32" t="s">
+        <v>609</v>
       </c>
       <c r="F10" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>607</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>608</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -33011,7 +33011,7 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C8 C11:C700" xr:uid="{CF1C1FAC-1EBE-8345-BF66-48D147E1AFD3}">
       <formula1>target</formula1>
     </dataValidation>
@@ -33052,12 +33052,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="29" t="s">
         <v>11</v>
       </c>
@@ -33075,20 +33075,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -33098,10 +33098,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -44595,12 +44595,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="30" t="s">
         <v>11</v>
       </c>
@@ -44618,20 +44618,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -44641,10 +44641,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332E8F37-E5A7-204E-89F4-911909BDEF2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860B96E0-92CC-0A43-AF82-7A02FC83C4A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6280" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="624">
   <si>
     <t>description</t>
   </si>
@@ -2112,19 +2112,7 @@
     <t>json.initial</t>
   </si>
   <si>
-    <t>json.expected</t>
-  </si>
-  <si>
     <t>{"name":"Me and Myself","data1":""}</t>
-  </si>
-  <si>
-    <t>json.actual</t>
-  </si>
-  <si>
-    <t>${json.expected}</t>
-  </si>
-  <si>
-    <t>${json.actual}</t>
   </si>
   <si>
     <t>[JSON(${json.initial}) =&gt; pack]</t>
@@ -2149,6 +2137,12 @@
   </si>
   <si>
     <t>[JSON(${json.initial}) =&gt; compact(true)]</t>
+  </si>
+  <si>
+    <t>{
+  "name": "Me and Myself",
+  "data1": ""
+}</t>
   </si>
 </sst>
 </file>
@@ -2432,6 +2426,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -2460,7 +2455,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -4902,12 +4896,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="24" t="s">
         <v>11</v>
       </c>
@@ -4925,20 +4919,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -4948,10 +4942,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -16463,12 +16457,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="31" t="s">
         <v>11</v>
       </c>
@@ -16486,20 +16480,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -16509,10 +16503,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -33144,12 +33138,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="29" t="s">
         <v>11</v>
       </c>
@@ -33167,20 +33161,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -33190,10 +33184,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -44687,12 +44681,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="30" t="s">
         <v>11</v>
       </c>
@@ -44710,20 +44704,20 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -44733,10 +44727,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -56168,11 +56162,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A596B16D-4B9C-994E-9333-9ECBFF3608C8}">
-  <dimension ref="A1:O1000"/>
+  <dimension ref="A1:O995"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="108" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -56181,7 +56175,9 @@
     <col min="2" max="2" width="29" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="34.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="18.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="57.6640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="9" width="18.5" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="18.5" style="23" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
@@ -56192,12 +56188,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="33" t="s">
         <v>11</v>
       </c>
@@ -56215,18 +56211,18 @@
       </c>
       <c r="J1" s="19"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
       <c r="E2" s="25"/>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
@@ -56236,10 +56232,10 @@
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
@@ -56330,17 +56326,19 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>616</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>63</v>
+        <v>312</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>615</v>
@@ -56357,22 +56355,24 @@
     </row>
     <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>620</v>
-      </c>
-      <c r="B7" s="5"/>
+        <v>617</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>619</v>
+      </c>
       <c r="C7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>312</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>619</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>618</v>
+      </c>
+      <c r="G7" s="34"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -56384,18 +56384,20 @@
     </row>
     <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>620</v>
+      </c>
       <c r="C8" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="E8" s="22" t="s">
-        <v>617</v>
+      <c r="E8" s="7" t="s">
+        <v>621</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -56408,24 +56410,12 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
-        <v>621</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>616</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>622</v>
-      </c>
+      <c r="A9" s="27"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -56439,19 +56429,11 @@
     <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>617</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="G10" s="42"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
@@ -56463,21 +56445,11 @@
     </row>
     <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
-      <c r="B11" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>614</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>625</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -56491,18 +56463,10 @@
     <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>626</v>
-      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -56516,18 +56480,10 @@
     <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>618</v>
-      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -56674,7 +56630,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -56691,9 +56647,9 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
-      <c r="B23" s="5"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="13"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
@@ -56708,7 +56664,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -56725,7 +56681,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -56742,7 +56698,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -56759,7 +56715,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -56776,9 +56732,9 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
-      <c r="B28" s="8"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="13"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -56786,14 +56742,14 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="3"/>
       <c r="L28" s="15"/>
       <c r="M28" s="12"/>
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -56803,14 +56759,14 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="3"/>
       <c r="L29" s="15"/>
       <c r="M29" s="12"/>
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -56820,14 +56776,14 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="3"/>
       <c r="L30" s="15"/>
       <c r="M30" s="12"/>
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -56837,14 +56793,14 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="3"/>
       <c r="L31" s="15"/>
       <c r="M31" s="12"/>
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -56854,14 +56810,14 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="3"/>
       <c r="L32" s="15"/>
       <c r="M32" s="12"/>
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -67248,91 +67204,11 @@
       <c r="N643" s="15"/>
       <c r="O643" s="3"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A644" s="27"/>
-      <c r="B644" s="5"/>
-      <c r="C644" s="13"/>
-      <c r="D644" s="7"/>
-      <c r="E644" s="7"/>
-      <c r="F644" s="7"/>
-      <c r="G644" s="7"/>
-      <c r="H644" s="7"/>
-      <c r="I644" s="7"/>
-      <c r="J644" s="22"/>
-      <c r="K644" s="3"/>
-      <c r="L644" s="15"/>
-      <c r="M644" s="12"/>
-      <c r="N644" s="15"/>
-      <c r="O644" s="3"/>
-    </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A645" s="27"/>
-      <c r="B645" s="5"/>
-      <c r="C645" s="13"/>
-      <c r="D645" s="7"/>
-      <c r="E645" s="7"/>
-      <c r="F645" s="7"/>
-      <c r="G645" s="7"/>
-      <c r="H645" s="7"/>
-      <c r="I645" s="7"/>
-      <c r="J645" s="22"/>
-      <c r="K645" s="3"/>
-      <c r="L645" s="15"/>
-      <c r="M645" s="12"/>
-      <c r="N645" s="15"/>
-      <c r="O645" s="3"/>
-    </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A646" s="27"/>
-      <c r="B646" s="5"/>
-      <c r="C646" s="13"/>
-      <c r="D646" s="7"/>
-      <c r="E646" s="7"/>
-      <c r="F646" s="7"/>
-      <c r="G646" s="7"/>
-      <c r="H646" s="7"/>
-      <c r="I646" s="7"/>
-      <c r="J646" s="22"/>
-      <c r="K646" s="3"/>
-      <c r="L646" s="15"/>
-      <c r="M646" s="12"/>
-      <c r="N646" s="15"/>
-      <c r="O646" s="3"/>
-    </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A647" s="27"/>
-      <c r="B647" s="5"/>
-      <c r="C647" s="13"/>
-      <c r="D647" s="7"/>
-      <c r="E647" s="7"/>
-      <c r="F647" s="7"/>
-      <c r="G647" s="7"/>
-      <c r="H647" s="7"/>
-      <c r="I647" s="7"/>
-      <c r="J647" s="22"/>
-      <c r="K647" s="3"/>
-      <c r="L647" s="15"/>
-      <c r="M647" s="12"/>
-      <c r="N647" s="15"/>
-      <c r="O647" s="3"/>
-    </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A648" s="27"/>
-      <c r="B648" s="5"/>
-      <c r="C648" s="13"/>
-      <c r="D648" s="7"/>
-      <c r="E648" s="7"/>
-      <c r="F648" s="7"/>
-      <c r="G648" s="7"/>
-      <c r="H648" s="7"/>
-      <c r="I648" s="7"/>
-      <c r="J648" s="22"/>
-      <c r="K648" s="3"/>
-      <c r="L648" s="15"/>
-      <c r="M648" s="12"/>
-      <c r="N648" s="15"/>
-      <c r="O648" s="3"/>
-    </row>
+    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -67680,11 +67556,6 @@
     <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -67705,10 +67576,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C700" xr:uid="{20E4A8AD-BFF1-2C4E-A639-3A007D25A7CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C695" xr:uid="{20E4A8AD-BFF1-2C4E-A639-3A007D25A7CB}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D698" xr:uid="{8E4A4580-2F69-BF4F-BBFE-C0FCA7080ACE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D693" xr:uid="{8E4A4580-2F69-BF4F-BBFE-C0FCA7080ACE}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{136C343C-C3A2-2641-8D29-418E41B2FDCD}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="28340" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-28340" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="28340" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-28340"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -29,7 +29,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="635">
   <si>
     <t>description</t>
   </si>
@@ -2159,13 +2159,19 @@
   <si>
     <t>saveAllAsText(var,exclude)</t>
   </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2357,8 +2363,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2530,8 +2637,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2895,6 +3155,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2902,7 +3488,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3046,52 +3632,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="16" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="19" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3508,7 +4142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF144"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -4200,7 +4834,7 @@
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="L10" t="s">
         <v>80</v>
@@ -4244,7 +4878,7 @@
         <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>476</v>
+        <v>634</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -4282,7 +4916,7 @@
         <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>476</v>
       </c>
       <c r="L12" t="s">
         <v>545</v>
@@ -4320,7 +4954,7 @@
         <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L13" t="s">
         <v>383</v>
@@ -4355,7 +4989,7 @@
         <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -4390,7 +5024,7 @@
         <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -4423,6 +5057,9 @@
       </c>
       <c r="H16" t="s">
         <v>262</v>
+      </c>
+      <c r="I16" t="s">
+        <v>322</v>
       </c>
       <c r="L16" t="s">
         <v>546</v>
@@ -5542,7 +6179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" zoomScaleNormal="108" zoomScale="100">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="108">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -17136,7 +17773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83873571-15B3-2B4B-BFA6-1F9FBFDA990E}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="108" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="108">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -33819,7 +34456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3729180E-58C6-374C-91D5-6DA3E96A50D3}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="108" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="108">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
@@ -45362,7 +45999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A351DB99-4319-6044-A398-151848C9943E}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="108" zoomScale="100" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="108">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -31,7 +31,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -49,14 +49,15 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="635">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="644">
   <si>
     <t>description</t>
   </si>
@@ -2165,13 +2166,40 @@
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="45" x14ac:knownFonts="1">
+  <fonts count="77" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2464,8 +2492,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2790,8 +3020,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3481,6 +4017,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3488,7 +4676,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="105">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3680,52 +4868,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="32" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="33" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="35" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="45" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="46" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="47" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="48" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="49" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="51" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4140,7 +5424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4228,21 +5512,24 @@
         <v>390</v>
       </c>
       <c r="Z1" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>57</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>438</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4278,7 +5565,7 @@
         <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>507</v>
+        <v>642</v>
       </c>
       <c r="L2" t="s">
         <v>312</v>
@@ -4323,21 +5610,24 @@
         <v>400</v>
       </c>
       <c r="Z2" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA2" t="s">
         <v>96</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>174</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>455</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>531</v>
       </c>
     </row>
@@ -4409,21 +5699,24 @@
         <v>401</v>
       </c>
       <c r="Z3" t="s">
+        <v>638</v>
+      </c>
+      <c r="AA3" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>175</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>358</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>182</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4492,21 +5785,24 @@
         <v>402</v>
       </c>
       <c r="Z4" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA4" t="s">
         <v>611</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>176</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>182</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>456</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>227</v>
       </c>
     </row>
@@ -4566,21 +5862,24 @@
         <v>353</v>
       </c>
       <c r="Z5" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA5" t="s">
         <v>591</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>631</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>183</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>457</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>228</v>
       </c>
     </row>
@@ -4610,7 +5909,7 @@
         <v>609</v>
       </c>
       <c r="K6" t="s">
-        <v>345</v>
+        <v>643</v>
       </c>
       <c r="L6" t="s">
         <v>503</v>
@@ -4637,21 +5936,24 @@
         <v>355</v>
       </c>
       <c r="Z6" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA6" t="s">
         <v>98</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>469</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>177</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>184</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>458</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4672,7 +5974,7 @@
         <v>471</v>
       </c>
       <c r="K7" t="s">
-        <v>569</v>
+        <v>345</v>
       </c>
       <c r="L7" t="s">
         <v>72</v>
@@ -4698,22 +6000,22 @@
       <c r="X7" t="s">
         <v>354</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>470</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>178</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>185</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>459</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>572</v>
       </c>
     </row>
@@ -4733,6 +6035,9 @@
       <c r="I8" t="s">
         <v>325</v>
       </c>
+      <c r="K8" t="s">
+        <v>569</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -4754,22 +6059,22 @@
       <c r="X8" t="s">
         <v>356</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>100</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>173</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>179</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>186</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>460</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>573</v>
       </c>
     </row>
@@ -4810,16 +6115,16 @@
       <c r="X9" t="s">
         <v>357</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>207</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>180</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>187</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>574</v>
       </c>
     </row>
@@ -4854,16 +6159,16 @@
       <c r="U10" t="s">
         <v>399</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>254</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>632</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>188</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4895,13 +6200,13 @@
       <c r="S11" t="s">
         <v>246</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>255</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>256</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4933,13 +6238,13 @@
       <c r="S12" t="s">
         <v>247</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>189</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>232</v>
       </c>
     </row>
@@ -4968,13 +6273,13 @@
       <c r="S13" t="s">
         <v>624</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>323</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>190</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>515</v>
       </c>
     </row>
@@ -5003,13 +6308,13 @@
       <c r="S14" t="s">
         <v>252</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>191</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>532</v>
       </c>
     </row>
@@ -5038,13 +6343,13 @@
       <c r="S15" t="s">
         <v>248</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>625</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>192</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>533</v>
       </c>
     </row>
@@ -5073,13 +6378,13 @@
       <c r="S16" t="s">
         <v>249</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>103</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>193</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>537</v>
       </c>
     </row>
@@ -5102,13 +6407,13 @@
       <c r="S17" t="s">
         <v>250</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>75</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>504</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>538</v>
       </c>
     </row>
@@ -5128,10 +6433,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>542</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>516</v>
       </c>
     </row>
@@ -5148,10 +6453,10 @@
       <c r="L19" t="s">
         <v>497</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>104</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5168,10 +6473,10 @@
       <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>105</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>535</v>
       </c>
     </row>
@@ -5188,10 +6493,10 @@
       <c r="L21" t="s">
         <v>84</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>106</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>539</v>
       </c>
     </row>
@@ -5208,10 +6513,10 @@
       <c r="L22" t="s">
         <v>602</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>107</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5228,10 +6533,10 @@
       <c r="L23" t="s">
         <v>511</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>523</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>575</v>
       </c>
     </row>
@@ -5248,10 +6553,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>108</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>576</v>
       </c>
     </row>
@@ -5268,16 +6573,16 @@
       <c r="L25" t="s">
         <v>385</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>582</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>635</v>
       </c>
       <c r="F26" t="s">
         <v>473</v>
@@ -5288,16 +6593,16 @@
       <c r="L26" t="s">
         <v>563</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" t="s">
         <v>223</v>
@@ -5308,16 +6613,16 @@
       <c r="L27" t="s">
         <v>85</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
         <v>224</v>
@@ -5328,13 +6633,13 @@
       <c r="L28" t="s">
         <v>464</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F29" t="s">
         <v>509</v>
@@ -5345,13 +6650,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>438</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
         <v>510</v>
@@ -5362,13 +6667,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>438</v>
       </c>
       <c r="F31" t="s">
         <v>440</v>
@@ -5376,18 +6681,21 @@
       <c r="H31" t="s">
         <v>214</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>225</v>
+      </c>
       <c r="F32" t="s">
         <v>64</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5398,7 +6706,7 @@
       <c r="H33" t="s">
         <v>282</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -5409,7 +6717,7 @@
       <c r="H34" t="s">
         <v>548</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5420,7 +6728,7 @@
       <c r="H35" t="s">
         <v>257</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>583</v>
       </c>
     </row>
@@ -5431,7 +6739,7 @@
       <c r="H36" t="s">
         <v>327</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5442,7 +6750,7 @@
       <c r="H37" t="s">
         <v>304</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5453,7 +6761,7 @@
       <c r="H38" t="s">
         <v>258</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>208</v>
       </c>
     </row>
@@ -5464,7 +6772,7 @@
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5472,7 +6780,7 @@
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>335</v>
       </c>
     </row>
@@ -5480,7 +6788,7 @@
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>453</v>
       </c>
     </row>
@@ -5488,7 +6796,7 @@
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>592</v>
       </c>
     </row>
@@ -5496,7 +6804,7 @@
       <c r="H43" t="s">
         <v>579</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>386</v>
       </c>
     </row>
@@ -5504,7 +6812,7 @@
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5512,7 +6820,7 @@
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5520,7 +6828,7 @@
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5528,7 +6836,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5536,7 +6844,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5544,7 +6852,7 @@
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5552,7 +6860,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>466</v>
       </c>
     </row>
@@ -5560,7 +6868,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5568,7 +6876,7 @@
       <c r="H52" t="s">
         <v>362</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>77</v>
       </c>
     </row>
@@ -5576,7 +6884,7 @@
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>571</v>
       </c>
     </row>
@@ -5584,7 +6892,7 @@
       <c r="H54" t="s">
         <v>350</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5592,7 +6900,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5600,7 +6908,7 @@
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5608,7 +6916,7 @@
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>524</v>
       </c>
     </row>
@@ -5616,7 +6924,7 @@
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>506</v>
       </c>
     </row>
@@ -5624,7 +6932,7 @@
       <c r="H59" t="s">
         <v>580</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5632,7 +6940,7 @@
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5640,7 +6948,7 @@
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>500</v>
       </c>
     </row>
@@ -5648,7 +6956,7 @@
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5656,7 +6964,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5664,7 +6972,7 @@
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5672,7 +6980,7 @@
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5680,7 +6988,7 @@
       <c r="H66" t="s">
         <v>363</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>134</v>
       </c>
     </row>
@@ -5688,7 +6996,7 @@
       <c r="H67" t="s">
         <v>364</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5696,7 +7004,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>136</v>
       </c>
     </row>
@@ -5704,7 +7012,7 @@
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>462</v>
       </c>
     </row>
@@ -5712,7 +7020,7 @@
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>514</v>
       </c>
     </row>
@@ -5720,7 +7028,7 @@
       <c r="H71" t="s">
         <v>567</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5728,7 +7036,7 @@
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5736,7 +7044,7 @@
       <c r="H73" t="s">
         <v>426</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5744,7 +7052,7 @@
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>137</v>
       </c>
     </row>
@@ -5752,7 +7060,7 @@
       <c r="H75" t="s">
         <v>427</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5760,7 +7068,7 @@
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5768,7 +7076,7 @@
       <c r="H77" t="s">
         <v>549</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>140</v>
       </c>
     </row>
@@ -5776,7 +7084,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>195</v>
       </c>
     </row>
@@ -5784,7 +7092,7 @@
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>196</v>
       </c>
     </row>
@@ -5792,7 +7100,7 @@
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>478</v>
       </c>
     </row>
@@ -5800,7 +7108,7 @@
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>508</v>
       </c>
     </row>
@@ -5808,7 +7116,7 @@
       <c r="H82" t="s">
         <v>441</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5816,7 +7124,7 @@
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5824,7 +7132,7 @@
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -5832,7 +7140,7 @@
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>536</v>
       </c>
     </row>
@@ -5840,7 +7148,7 @@
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>144</v>
       </c>
     </row>
@@ -5848,7 +7156,7 @@
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>145</v>
       </c>
     </row>
@@ -5856,7 +7164,7 @@
       <c r="H88" t="s">
         <v>568</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5864,7 +7172,7 @@
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>525</v>
       </c>
     </row>
@@ -5872,7 +7180,7 @@
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>614</v>
       </c>
     </row>
@@ -5880,7 +7188,7 @@
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>198</v>
       </c>
     </row>
@@ -5888,7 +7196,7 @@
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>477</v>
       </c>
     </row>
@@ -5896,7 +7204,7 @@
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -5904,7 +7212,7 @@
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>200</v>
       </c>
     </row>
@@ -5912,7 +7220,7 @@
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>586</v>
       </c>
     </row>
@@ -5920,7 +7228,7 @@
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>587</v>
       </c>
     </row>
@@ -5928,7 +7236,7 @@
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5936,237 +7244,237 @@
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -35,7 +35,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -43,7 +43,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -51,13 +51,14 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3708" uniqueCount="654">
   <si>
     <t>description</t>
   </si>
@@ -2193,13 +2194,43 @@
   <si>
     <t>ocr(image,saveVar)</t>
   </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="77" x14ac:knownFonts="1">
+  <fonts count="93" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2694,8 +2725,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3326,8 +3458,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4669,6 +4954,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4676,7 +5287,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="121">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4964,52 +5575,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="67" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5424,7 +6083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5512,7 +6171,7 @@
         <v>390</v>
       </c>
       <c r="Z1" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="AA1" t="s">
         <v>54</v>
@@ -5592,7 +6251,7 @@
         <v>251</v>
       </c>
       <c r="T2" t="s">
-        <v>215</v>
+        <v>646</v>
       </c>
       <c r="U2" t="s">
         <v>391</v>
@@ -5610,7 +6269,7 @@
         <v>400</v>
       </c>
       <c r="Z2" t="s">
-        <v>637</v>
+        <v>648</v>
       </c>
       <c r="AA2" t="s">
         <v>96</v>
@@ -5684,7 +6343,7 @@
         <v>238</v>
       </c>
       <c r="T3" t="s">
-        <v>216</v>
+        <v>647</v>
       </c>
       <c r="U3" t="s">
         <v>392</v>
@@ -5699,7 +6358,7 @@
         <v>401</v>
       </c>
       <c r="Z3" t="s">
-        <v>638</v>
+        <v>649</v>
       </c>
       <c r="AA3" t="s">
         <v>97</v>
@@ -5770,7 +6429,7 @@
         <v>239</v>
       </c>
       <c r="T4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U4" t="s">
         <v>393</v>
@@ -5785,7 +6444,7 @@
         <v>402</v>
       </c>
       <c r="Z4" t="s">
-        <v>639</v>
+        <v>650</v>
       </c>
       <c r="AA4" t="s">
         <v>611</v>
@@ -5850,7 +6509,7 @@
         <v>240</v>
       </c>
       <c r="T5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="U5" t="s">
         <v>394</v>
@@ -5860,9 +6519,6 @@
       </c>
       <c r="X5" t="s">
         <v>353</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>640</v>
       </c>
       <c r="AA5" t="s">
         <v>591</v>
@@ -5927,16 +6583,13 @@
         <v>241</v>
       </c>
       <c r="T6" t="s">
-        <v>384</v>
+        <v>217</v>
       </c>
       <c r="U6" t="s">
         <v>395</v>
       </c>
       <c r="X6" t="s">
         <v>355</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>641</v>
       </c>
       <c r="AA6" t="s">
         <v>98</v>
@@ -5992,7 +6645,7 @@
         <v>242</v>
       </c>
       <c r="T7" t="s">
-        <v>447</v>
+        <v>218</v>
       </c>
       <c r="U7" t="s">
         <v>396</v>
@@ -6053,6 +6706,9 @@
       <c r="S8" t="s">
         <v>243</v>
       </c>
+      <c r="T8" t="s">
+        <v>384</v>
+      </c>
       <c r="U8" t="s">
         <v>397</v>
       </c>
@@ -6109,6 +6765,9 @@
       <c r="S9" t="s">
         <v>244</v>
       </c>
+      <c r="T9" t="s">
+        <v>447</v>
+      </c>
       <c r="U9" t="s">
         <v>398</v>
       </c>
@@ -6230,7 +6889,7 @@
         <v>570</v>
       </c>
       <c r="O12" t="s">
-        <v>558</v>
+        <v>645</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -6267,6 +6926,9 @@
       <c r="N13" t="s">
         <v>465</v>
       </c>
+      <c r="O13" t="s">
+        <v>558</v>
+      </c>
       <c r="R13" t="s">
         <v>94</v>
       </c>
@@ -6344,7 +7006,7 @@
         <v>248</v>
       </c>
       <c r="AA15" t="s">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="AD15" t="s">
         <v>192</v>
@@ -6379,7 +7041,7 @@
         <v>249</v>
       </c>
       <c r="AA16" t="s">
-        <v>103</v>
+        <v>625</v>
       </c>
       <c r="AD16" t="s">
         <v>193</v>
@@ -6408,7 +7070,7 @@
         <v>250</v>
       </c>
       <c r="AA17" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AD17" t="s">
         <v>504</v>
@@ -6434,7 +7096,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>542</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s">
         <v>516</v>
@@ -6454,7 +7116,7 @@
         <v>497</v>
       </c>
       <c r="AA19" t="s">
-        <v>104</v>
+        <v>542</v>
       </c>
       <c r="AF19" t="s">
         <v>534</v>
@@ -6474,7 +7136,7 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF20" t="s">
         <v>535</v>
@@ -6494,7 +7156,7 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF21" t="s">
         <v>539</v>
@@ -6514,7 +7176,7 @@
         <v>602</v>
       </c>
       <c r="AA22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF22" t="s">
         <v>233</v>
@@ -6534,7 +7196,7 @@
         <v>511</v>
       </c>
       <c r="AA23" t="s">
-        <v>523</v>
+        <v>107</v>
       </c>
       <c r="AF23" t="s">
         <v>575</v>
@@ -6554,7 +7216,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>108</v>
+        <v>523</v>
       </c>
       <c r="AF24" t="s">
         <v>576</v>
@@ -6574,7 +7236,7 @@
         <v>385</v>
       </c>
       <c r="AA25" t="s">
-        <v>582</v>
+        <v>108</v>
       </c>
       <c r="AF25" t="s">
         <v>577</v>
@@ -6582,7 +7244,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="F26" t="s">
         <v>473</v>
@@ -6594,7 +7256,7 @@
         <v>563</v>
       </c>
       <c r="AA26" t="s">
-        <v>109</v>
+        <v>582</v>
       </c>
       <c r="AF26" t="s">
         <v>234</v>
@@ -6614,7 +7276,7 @@
         <v>85</v>
       </c>
       <c r="AA27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF27" t="s">
         <v>235</v>
@@ -6634,7 +7296,7 @@
         <v>464</v>
       </c>
       <c r="AA28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -6651,7 +7313,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -6668,7 +7330,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>324</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31">
@@ -6682,7 +7344,7 @@
         <v>214</v>
       </c>
       <c r="AA31" t="s">
-        <v>113</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32">
@@ -6696,7 +7358,7 @@
         <v>272</v>
       </c>
       <c r="AA32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -6707,7 +7369,7 @@
         <v>282</v>
       </c>
       <c r="AA33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -6718,7 +7380,7 @@
         <v>548</v>
       </c>
       <c r="AA34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -6729,7 +7391,7 @@
         <v>257</v>
       </c>
       <c r="AA35" t="s">
-        <v>583</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36">
@@ -6740,7 +7402,7 @@
         <v>327</v>
       </c>
       <c r="AA36" t="s">
-        <v>117</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37">
@@ -6751,7 +7413,7 @@
         <v>304</v>
       </c>
       <c r="AA37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -6762,7 +7424,7 @@
         <v>258</v>
       </c>
       <c r="AA38" t="s">
-        <v>208</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -6773,7 +7435,7 @@
         <v>305</v>
       </c>
       <c r="AA39" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40">
@@ -6781,7 +7443,7 @@
         <v>264</v>
       </c>
       <c r="AA40" t="s">
-        <v>335</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -6789,7 +7451,7 @@
         <v>78</v>
       </c>
       <c r="AA41" t="s">
-        <v>453</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42">
@@ -6797,7 +7459,7 @@
         <v>210</v>
       </c>
       <c r="AA42" t="s">
-        <v>592</v>
+        <v>453</v>
       </c>
     </row>
     <row r="43">
@@ -6805,7 +7467,7 @@
         <v>579</v>
       </c>
       <c r="AA43" t="s">
-        <v>386</v>
+        <v>592</v>
       </c>
     </row>
     <row r="44">
@@ -6813,7 +7475,7 @@
         <v>286</v>
       </c>
       <c r="AA44" t="s">
-        <v>120</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45">
@@ -6821,7 +7483,7 @@
         <v>297</v>
       </c>
       <c r="AA45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -6829,7 +7491,7 @@
         <v>298</v>
       </c>
       <c r="AA46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
@@ -6837,7 +7499,7 @@
         <v>340</v>
       </c>
       <c r="AA47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -6845,7 +7507,7 @@
         <v>339</v>
       </c>
       <c r="AA48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -6853,7 +7515,7 @@
         <v>209</v>
       </c>
       <c r="AA49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -6861,7 +7523,7 @@
         <v>317</v>
       </c>
       <c r="AA50" t="s">
-        <v>466</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51">
@@ -6869,7 +7531,7 @@
         <v>336</v>
       </c>
       <c r="AA51" t="s">
-        <v>211</v>
+        <v>652</v>
       </c>
     </row>
     <row r="52">
@@ -6877,7 +7539,7 @@
         <v>362</v>
       </c>
       <c r="AA52" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53">
@@ -6885,7 +7547,7 @@
         <v>299</v>
       </c>
       <c r="AA53" t="s">
-        <v>571</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -6893,7 +7555,7 @@
         <v>350</v>
       </c>
       <c r="AA54" t="s">
-        <v>126</v>
+        <v>571</v>
       </c>
     </row>
     <row r="55">
@@ -6901,7 +7563,7 @@
         <v>328</v>
       </c>
       <c r="AA55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -6909,7 +7571,7 @@
         <v>265</v>
       </c>
       <c r="AA56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -6917,7 +7579,7 @@
         <v>289</v>
       </c>
       <c r="AA57" t="s">
-        <v>524</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -6925,7 +7587,7 @@
         <v>290</v>
       </c>
       <c r="AA58" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="59">
@@ -6933,7 +7595,7 @@
         <v>580</v>
       </c>
       <c r="AA59" t="s">
-        <v>129</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60">
@@ -6941,7 +7603,7 @@
         <v>291</v>
       </c>
       <c r="AA60" t="s">
-        <v>343</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61">
@@ -6949,7 +7611,7 @@
         <v>300</v>
       </c>
       <c r="AA61" t="s">
-        <v>500</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62">
@@ -6957,7 +7619,7 @@
         <v>309</v>
       </c>
       <c r="AA62" t="s">
-        <v>130</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63">
@@ -6965,7 +7627,7 @@
         <v>334</v>
       </c>
       <c r="AA63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -6973,7 +7635,7 @@
         <v>306</v>
       </c>
       <c r="AA64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -6981,7 +7643,7 @@
         <v>307</v>
       </c>
       <c r="AA65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -6989,7 +7651,7 @@
         <v>363</v>
       </c>
       <c r="AA66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -6997,7 +7659,7 @@
         <v>364</v>
       </c>
       <c r="AA67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -7005,7 +7667,7 @@
         <v>342</v>
       </c>
       <c r="AA68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
@@ -7013,7 +7675,7 @@
         <v>310</v>
       </c>
       <c r="AA69" t="s">
-        <v>462</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70">
@@ -7021,7 +7683,7 @@
         <v>266</v>
       </c>
       <c r="AA70" t="s">
-        <v>514</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71">
@@ -7029,7 +7691,7 @@
         <v>567</v>
       </c>
       <c r="AA71" t="s">
-        <v>212</v>
+        <v>514</v>
       </c>
     </row>
     <row r="72">
@@ -7037,7 +7699,7 @@
         <v>311</v>
       </c>
       <c r="AA72" t="s">
-        <v>382</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73">
@@ -7045,7 +7707,7 @@
         <v>426</v>
       </c>
       <c r="AA73" t="s">
-        <v>467</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74">
@@ -7053,7 +7715,7 @@
         <v>301</v>
       </c>
       <c r="AA74" t="s">
-        <v>137</v>
+        <v>467</v>
       </c>
     </row>
     <row r="75">
@@ -7061,7 +7723,7 @@
         <v>427</v>
       </c>
       <c r="AA75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -7069,7 +7731,7 @@
         <v>259</v>
       </c>
       <c r="AA76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -7077,7 +7739,7 @@
         <v>549</v>
       </c>
       <c r="AA77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -7085,7 +7747,7 @@
         <v>341</v>
       </c>
       <c r="AA78" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="79">
@@ -7093,7 +7755,7 @@
         <v>277</v>
       </c>
       <c r="AA79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -7101,7 +7763,7 @@
         <v>283</v>
       </c>
       <c r="AA80" t="s">
-        <v>478</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81">
@@ -7109,7 +7771,7 @@
         <v>288</v>
       </c>
       <c r="AA81" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82">
@@ -7117,7 +7779,7 @@
         <v>441</v>
       </c>
       <c r="AA82" t="s">
-        <v>141</v>
+        <v>508</v>
       </c>
     </row>
     <row r="83">
@@ -7125,7 +7787,7 @@
         <v>329</v>
       </c>
       <c r="AA83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
@@ -7133,7 +7795,7 @@
         <v>267</v>
       </c>
       <c r="AA84" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85">
@@ -7141,7 +7803,7 @@
         <v>278</v>
       </c>
       <c r="AA85" t="s">
-        <v>536</v>
+        <v>143</v>
       </c>
     </row>
     <row r="86">
@@ -7149,7 +7811,7 @@
         <v>284</v>
       </c>
       <c r="AA86" t="s">
-        <v>144</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87">
@@ -7157,7 +7819,7 @@
         <v>273</v>
       </c>
       <c r="AA87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
@@ -7165,7 +7827,7 @@
         <v>568</v>
       </c>
       <c r="AA88" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89">
@@ -7173,7 +7835,7 @@
         <v>268</v>
       </c>
       <c r="AA89" t="s">
-        <v>525</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -7181,7 +7843,7 @@
         <v>285</v>
       </c>
       <c r="AA90" t="s">
-        <v>614</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91">
@@ -7189,7 +7851,7 @@
         <v>269</v>
       </c>
       <c r="AA91" t="s">
-        <v>198</v>
+        <v>614</v>
       </c>
     </row>
     <row r="92">
@@ -7197,7 +7859,7 @@
         <v>270</v>
       </c>
       <c r="AA92" t="s">
-        <v>477</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
@@ -7205,7 +7867,7 @@
         <v>302</v>
       </c>
       <c r="AA93" t="s">
-        <v>199</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94">
@@ -7213,7 +7875,7 @@
         <v>308</v>
       </c>
       <c r="AA94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
@@ -7221,7 +7883,7 @@
         <v>292</v>
       </c>
       <c r="AA95" t="s">
-        <v>586</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96">
@@ -7229,7 +7891,7 @@
         <v>337</v>
       </c>
       <c r="AA96" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="97">
@@ -7237,7 +7899,7 @@
         <v>274</v>
       </c>
       <c r="AA97" t="s">
-        <v>213</v>
+        <v>587</v>
       </c>
     </row>
     <row r="98">
@@ -7245,236 +7907,241 @@
         <v>275</v>
       </c>
       <c r="AA98" t="s">
-        <v>146</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>201</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>454</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>612</v>
+        <v>454</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>461</v>
+        <v>613</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>202</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>626</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>206</v>
+        <v>626</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>547</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>593</v>
+        <v>547</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>147</v>
+        <v>550</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>551</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>376</v>
+        <v>551</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>148</v>
+        <v>376</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>627</v>
+        <v>149</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>150</v>
+        <v>627</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>628</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>152</v>
+        <v>628</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>629</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>158</v>
+        <v>629</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>468</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>161</v>
+        <v>653</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>584</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>162</v>
+        <v>584</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>630</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>166</v>
+        <v>630</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>168</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_expressions.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB32E8FE-0514-49D0-B955-9AEBD93DECA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{FB32E8FE-0514-49D0-B955-9AEBD93DECA4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="NUMBER" sheetId="2" r:id="rId2"/>
-    <sheet name="CSV" sheetId="7" r:id="rId3"/>
-    <sheet name="EXCEL" sheetId="5" r:id="rId4"/>
-    <sheet name="XML" sheetId="6" r:id="rId5"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="NUMBER" r:id="rId2" sheetId="2"/>
+    <sheet name="CSV" r:id="rId3" sheetId="7"/>
+    <sheet name="EXCEL" r:id="rId4" sheetId="5"/>
+    <sheet name="XML" r:id="rId5" sheetId="6"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -32,7 +32,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -42,7 +42,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -50,15 +50,15 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="702">
   <si>
     <t>description</t>
   </si>
@@ -2209,12 +2209,172 @@
   <si>
     <t>[NUMBER(92.02) =&gt; mod(37.53)]</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2305,8 +2465,222 @@
       <name val="Consolas"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2323,6 +2697,278 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2366,161 +3012,263 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="75">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="6" fontId="13" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="9" fontId="15" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="16" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="19" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="21" fontId="21" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="22" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="12" fontId="23" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="28" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="24" fontId="29" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -2644,7 +3392,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2669,10 +3417,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2707,7 +3455,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2742,7 +3490,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2836,21 +3584,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2867,7 +3615,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2919,26 +3667,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3018,25 +3766,28 @@
         <v>633</v>
       </c>
       <c r="AA1" t="s">
+        <v>649</v>
+      </c>
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>438</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>365</v>
       </c>
@@ -3116,25 +3867,28 @@
         <v>637</v>
       </c>
       <c r="AA2" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>169</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>174</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>181</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>455</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>499</v>
       </c>
@@ -3205,25 +3959,28 @@
         <v>638</v>
       </c>
       <c r="AA3" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB3" t="s">
         <v>97</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>170</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>175</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>358</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>182</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>523</v>
       </c>
@@ -3291,25 +4048,28 @@
         <v>639</v>
       </c>
       <c r="AA4" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB4" t="s">
         <v>608</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>171</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>176</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>182</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>456</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>585</v>
       </c>
@@ -3365,25 +4125,28 @@
         <v>353</v>
       </c>
       <c r="AA5" t="s">
+        <v>660</v>
+      </c>
+      <c r="AB5" t="s">
         <v>588</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>172</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>627</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>183</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>457</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3436,25 +4199,28 @@
         <v>355</v>
       </c>
       <c r="AA6" t="s">
+        <v>661</v>
+      </c>
+      <c r="AB6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>467</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>177</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>184</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>458</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -3498,25 +4264,28 @@
         <v>354</v>
       </c>
       <c r="AA7" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>468</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>178</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>185</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>459</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3560,25 +4329,28 @@
         <v>356</v>
       </c>
       <c r="AA8" t="s">
+        <v>663</v>
+      </c>
+      <c r="AB8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>173</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>179</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>186</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>460</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3619,19 +4391,22 @@
         <v>357</v>
       </c>
       <c r="AA9" t="s">
+        <v>664</v>
+      </c>
+      <c r="AB9" t="s">
         <v>207</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>180</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>187</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3663,19 +4438,22 @@
         <v>399</v>
       </c>
       <c r="AA10" t="s">
+        <v>665</v>
+      </c>
+      <c r="AB10" t="s">
         <v>254</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>628</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>188</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>344</v>
       </c>
@@ -3701,19 +4479,22 @@
         <v>93</v>
       </c>
       <c r="S11" t="s">
-        <v>246</v>
+        <v>656</v>
       </c>
       <c r="AA11" t="s">
+        <v>666</v>
+      </c>
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>256</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3739,19 +4520,22 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AA12" t="s">
+        <v>667</v>
+      </c>
+      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>189</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -3777,19 +4561,22 @@
         <v>94</v>
       </c>
       <c r="S13" t="s">
-        <v>620</v>
+        <v>247</v>
       </c>
       <c r="AA13" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>190</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3812,19 +4599,22 @@
         <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>252</v>
+        <v>620</v>
       </c>
       <c r="AA14" t="s">
+        <v>669</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>191</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>549</v>
       </c>
@@ -3847,19 +4637,22 @@
         <v>537</v>
       </c>
       <c r="S15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AA15" t="s">
+        <v>670</v>
+      </c>
+      <c r="AB15" t="s">
         <v>640</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>192</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>514</v>
       </c>
@@ -3882,19 +4675,22 @@
         <v>538</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA16" t="s">
+        <v>671</v>
+      </c>
+      <c r="AB16" t="s">
         <v>621</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>193</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>194</v>
       </c>
@@ -3911,19 +4707,22 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AA17" t="s">
+        <v>672</v>
+      </c>
+      <c r="AB17" t="s">
         <v>103</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>502</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3939,19 +4738,25 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>250</v>
+      </c>
       <c r="AA18" t="s">
+        <v>673</v>
+      </c>
+      <c r="AB18" t="s">
         <v>75</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>237</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>650</v>
       </c>
       <c r="H19" t="s">
         <v>90</v>
@@ -3960,18 +4765,21 @@
         <v>495</v>
       </c>
       <c r="AA19" t="s">
+        <v>674</v>
+      </c>
+      <c r="AB19" t="s">
         <v>539</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>651</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -3980,18 +4788,21 @@
         <v>83</v>
       </c>
       <c r="AA20" t="s">
+        <v>675</v>
+      </c>
+      <c r="AB20" t="s">
         <v>104</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>652</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -4000,18 +4811,21 @@
         <v>84</v>
       </c>
       <c r="AA21" t="s">
+        <v>676</v>
+      </c>
+      <c r="AB21" t="s">
         <v>105</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>436</v>
       </c>
       <c r="F22" t="s">
-        <v>575</v>
+        <v>60</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -4020,18 +4834,21 @@
         <v>599</v>
       </c>
       <c r="AA22" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB22" t="s">
         <v>106</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>437</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -4040,18 +4857,21 @@
         <v>508</v>
       </c>
       <c r="AA23" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB23" t="s">
         <v>107</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>351</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -4060,18 +4880,21 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>679</v>
+      </c>
+      <c r="AB24" t="s">
         <v>520</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>653</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -4080,947 +4903,1040 @@
         <v>385</v>
       </c>
       <c r="AA25" t="s">
+        <v>680</v>
+      </c>
+      <c r="AB25" t="s">
         <v>108</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>633</v>
       </c>
       <c r="F26" t="s">
-        <v>471</v>
+        <v>575</v>
       </c>
       <c r="H26" t="s">
         <v>76</v>
       </c>
       <c r="L26" t="s">
-        <v>560</v>
+        <v>655</v>
       </c>
       <c r="AA26" t="s">
+        <v>681</v>
+      </c>
+      <c r="AB26" t="s">
         <v>579</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>649</v>
       </c>
       <c r="F27" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>560</v>
       </c>
       <c r="AA27" t="s">
+        <v>682</v>
+      </c>
+      <c r="AB27" t="s">
         <v>109</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>318</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>464</v>
+        <v>85</v>
       </c>
       <c r="AA28" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB28" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>506</v>
+        <v>63</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>464</v>
       </c>
       <c r="AA29" t="s">
+        <v>684</v>
+      </c>
+      <c r="AB29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>507</v>
+        <v>471</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>685</v>
+      </c>
+      <c r="AB30" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
-        <v>438</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>440</v>
+        <v>223</v>
       </c>
       <c r="H31" t="s">
         <v>214</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>438</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>224</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
       <c r="AA32" t="s">
+        <v>687</v>
+      </c>
+      <c r="AB32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="33">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>506</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
       </c>
       <c r="AA33" t="s">
+        <v>688</v>
+      </c>
+      <c r="AB33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>507</v>
       </c>
       <c r="H34" t="s">
         <v>545</v>
       </c>
       <c r="AA34" t="s">
+        <v>689</v>
+      </c>
+      <c r="AB34" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>440</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
       </c>
       <c r="AA35" t="s">
+        <v>690</v>
+      </c>
+      <c r="AB35" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB36" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="37" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
       </c>
       <c r="AA37" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB37" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
       <c r="AA38" t="s">
+        <v>693</v>
+      </c>
+      <c r="AB38" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="40">
+      <c r="F40" t="s">
+        <v>68</v>
+      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="41" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="41">
+      <c r="F41" t="s">
+        <v>69</v>
+      </c>
       <c r="H41" t="s">
         <v>78</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="42" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="42">
+      <c r="F42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
         <v>210</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="43" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="43">
+      <c r="F43" t="s">
+        <v>71</v>
+      </c>
       <c r="H43" t="s">
         <v>576</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="44" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="44">
+      <c r="F44" t="s">
+        <v>654</v>
+      </c>
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="45" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="49" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="H49" t="s">
         <v>209</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="52" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="H52" t="s">
         <v>362</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="53" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="H54" t="s">
         <v>350</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="55" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="58" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="59" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="H59" t="s">
         <v>577</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="60" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="62" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="63" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="64" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="65" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="H66" t="s">
         <v>363</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="H67" t="s">
         <v>364</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="70" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="71" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="H71" t="s">
         <v>564</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="H73" t="s">
         <v>426</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="74" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="75" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="H75" t="s">
         <v>427</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="76" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="H77" t="s">
         <v>546</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="78" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="79" spans="8:27" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="AA79" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB79" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="AA80" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB80" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="AA81" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="H82" t="s">
         <v>441</v>
       </c>
-      <c r="AA82" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB82" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AA83" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB83" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="AA84" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="AA85" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="AA86" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB86" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="AA87" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB87" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="H88" t="s">
         <v>565</v>
       </c>
-      <c r="AA88" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB88" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="AA89" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB89" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="AA90" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB90" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="AA91" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB91" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="AA92" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB92" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="AA93" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="AA94" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB94" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="AA95" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB95" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AA96" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB96" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="AA97" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27" x14ac:dyDescent="0.25">
+      <c r="AB97" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="99" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="100" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="102" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="103" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="104" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="105" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="107" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="108" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="111" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="8:27" x14ac:dyDescent="0.25">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="113" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA113" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="114" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA114" t="s">
+    <row r="114">
+      <c r="AB114" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="115" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="117" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="118" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="119" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="121" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="122" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="123" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="124" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="126" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="127" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="128" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="129" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="131" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="132" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="133" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="134" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="135" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="137" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA141" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="142" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="143" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>168</v>
       </c>
     </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>701</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100" zoomScaleNormal="108">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="18.375" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.375" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="24.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="29.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="29.625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="21.5" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="10" width="18.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -5051,7 +5967,7 @@
       <c r="N1" s="37"/>
       <c r="O1" s="38"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>47</v>
       </c>
@@ -5072,7 +5988,7 @@
       <c r="N2" s="40"/>
       <c r="O2" s="40"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -5089,7 +6005,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -5134,7 +6050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>403</v>
       </c>
@@ -5161,7 +6077,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -5186,7 +6102,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -5211,7 +6127,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -5236,7 +6152,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>412</v>
       </c>
@@ -5263,7 +6179,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -5288,7 +6204,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>417</v>
       </c>
@@ -5315,7 +6231,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -5340,7 +6256,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>420</v>
       </c>
@@ -5367,7 +6283,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
@@ -5392,7 +6308,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13" t="s">
@@ -5417,7 +6333,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>612</v>
       </c>
@@ -5444,7 +6360,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13" t="s">
@@ -5469,7 +6385,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
@@ -5494,7 +6410,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13" t="s">
@@ -5519,7 +6435,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>645</v>
       </c>
@@ -5546,7 +6462,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13" t="s">
@@ -5571,7 +6487,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -5588,7 +6504,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -5605,7 +6521,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -5622,7 +6538,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5639,7 +6555,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5656,7 +6572,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5673,7 +6589,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -5690,7 +6606,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="8"/>
       <c r="C29" s="13"/>
@@ -5707,7 +6623,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5725,7 +6641,7 @@
       <c r="O30" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -5733,57 +6649,57 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="11" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="11" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="10" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="9" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="9" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C30" xr:uid="{00000000-0002-0000-0100-000001000000}">
+  <dataValidations count="2" disablePrompts="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C30" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D30" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D30" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83873571-15B3-2B4B-BFA6-1F9FBFDA990E}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83873571-15B3-2B4B-BFA6-1F9FBFDA990E}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="108">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.125" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.875" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="44.125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="66.375" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="62.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.375" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.375" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="30.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="29.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="44.125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="66.375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="62.875" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="18.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -5814,7 +6730,7 @@
       <c r="N1" s="37"/>
       <c r="O1" s="38"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>47</v>
       </c>
@@ -5835,7 +6751,7 @@
       <c r="N2" s="40"/>
       <c r="O2" s="40"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -5852,7 +6768,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -5897,7 +6813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>591</v>
       </c>
@@ -5924,7 +6840,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -5949,7 +6865,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row ht="90" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -5974,7 +6890,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -5999,7 +6915,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>600</v>
       </c>
@@ -6024,7 +6940,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="165" x14ac:dyDescent="0.25">
+    <row ht="165" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="14" t="s">
@@ -6051,7 +6967,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -6067,7 +6983,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -6083,7 +6999,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -6100,7 +7016,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -6117,7 +7033,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -6134,7 +7050,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -6151,7 +7067,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -6168,7 +7084,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -6185,7 +7101,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -6202,7 +7118,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -6219,7 +7135,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -6236,7 +7152,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -6253,7 +7169,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -6270,7 +7186,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -6287,7 +7203,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -6304,7 +7220,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -6321,7 +7237,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -6338,7 +7254,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -6355,7 +7271,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -6372,7 +7288,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -6389,7 +7305,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -6406,7 +7322,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -6423,7 +7339,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -6440,7 +7356,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -6457,7 +7373,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -6474,7 +7390,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -6491,7 +7407,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -6508,7 +7424,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -6525,7 +7441,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -6542,7 +7458,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -6559,7 +7475,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -6576,7 +7492,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -6593,7 +7509,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -6610,7 +7526,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -6627,7 +7543,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -6644,7 +7560,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -6661,7 +7577,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -6678,7 +7594,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -6695,7 +7611,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -6712,7 +7628,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -6730,7 +7646,7 @@
       <c r="O50" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -6738,57 +7654,57 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="8" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="8" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="7" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="7" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="6" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="6" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C8 C11:C50" xr:uid="{CF1C1FAC-1EBE-8345-BF66-48D147E1AFD3}">
+  <dataValidations count="2" disablePrompts="1">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C8 C11:C50" type="list" xr:uid="{CF1C1FAC-1EBE-8345-BF66-48D147E1AFD3}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D50" xr:uid="{1A81A3FA-7289-6641-A382-AAE2F2763978}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D50" type="list" xr:uid="{1A81A3FA-7289-6641-A382-AAE2F2763978}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3729180E-58C6-374C-91D5-6DA3E96A50D3}">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3729180E-58C6-374C-91D5-6DA3E96A50D3}">
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="108" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="108">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.625" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.875" style="10" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="18.375" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.375" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="24.625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="29.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="29.625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="37.875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="34.875" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="18.375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="18.375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -6819,7 +7735,7 @@
       <c r="N1" s="37"/>
       <c r="O1" s="38"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
         <v>47</v>
       </c>
@@ -6840,7 +7756,7 @@
       <c r="N2" s="40"/>
       <c r="O2" s="40"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -6857,7 +7773,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>219</v>
       </c>
@@ -6902,7 +7818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="66" r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>428</v>
       </c>
@@ -6929,7 +7845,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="72.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="72.95" r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -6952,7 +7868,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="81" r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -6977,7 +7893,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="84" r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
         <v>430</v>
@@ -7004,7 +7920,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93.95" r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>431</v>
@@ -7033,7 +7949,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="62.1" r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="5" t="s">
         <v>432</v>
@@ -7058,7 +7974,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="66" r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
@@ -7083,7 +7999,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="65.099999999999994" r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -7108,7 +8024,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -7125,7 +8041,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -7142,7 +8058,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -7159,7 +8075,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight=